--- a/results/embedding/spreadsheet25_embedding_2_pegasus_0.xlsx
+++ b/results/embedding/spreadsheet25_embedding_2_pegasus_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,86 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -665,25 +597,25 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>11.12</v>
+        <v>11.11</v>
       </c>
       <c r="O2" t="n">
         <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04556655883789062</v>
+        <v>0.08745992183685303</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03580367565155029</v>
+        <v>0.06857085227966309</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'x_0_1': [3163], 'x_1_1': [2386], 's_0_1_1': [2371], 't_0': [3178], 'x_0_2': [2430], 't_1': [3133], 'x_1_2': [3148], 's_0_1_2': [2445], 'x_2_1': [3677], 't_2': [3662], 'x_2_2': [559]}</t>
+          <t>{'x_0_1': [3163], 'x_1_1': [2386], 's_0_1_1': [2371], 't_0': [3178], 'x_0_2': [2430], 't_1': [3133], 'x_1_2': [3148], 's_0_1_2': [2445], 'x_2_1': [3917], 't_2': [680], 'x_2_2': [3902]}</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'x_0_1': [4222], 'x_1_1': [1447], 'x_0_2': [1462], 'x_1_2': [4192], 'x_2_1': [5292], 'x_2_2': [2247]}</t>
+          <t>{'x_0_1': [4222], 'x_1_1': [1447], 'x_0_2': [1462], 'x_1_2': [4192], 'x_2_1': [5472], 'x_2_2': [2233]}</t>
         </is>
       </c>
       <c r="T2" t="n">
@@ -693,14 +625,14 @@
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05549812316894531</v>
+        <v>0.09206819534301758</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05018258094787598</v>
+        <v>0.07656145095825195</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 12, 11, 12, 11, 11, 11, 11, 12, 11, 11, 12, 11, 12, 11, 12, 12, 11, 11, 11]</t>
+          <t>[11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 11, 11, 11, 12, 11, 11, 11, 11, 12, 11, 11, 11, 11, 12, 11, 12, 12, 11, 11, 11]</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -709,7 +641,7 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>0.3265986323710904</v>
+        <v>0.3144660377352201</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -722,12 +654,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>[0.05549812316894531, 0.08287787437438965, 0.05415940284729004, 0.042258501052856445, 0.04297018051147461, 0.04575300216674805, 0.05022072792053223, 0.05558586120605469, 0.07435441017150879, 0.0760948657989502, 0.047472476959228516, 0.04060244560241699, 0.050865888595581055, 0.04582405090332031, 0.046915531158447266, 0.07394027709960938, 0.07059574127197266, 0.051032304763793945, 0.05608844757080078, 0.04340982437133789, 0.042130470275878906, 0.04183816909790039, 0.04067683219909668, 0.0809779167175293, 0.05411100387573242, 0.05514860153198242, 0.038582801818847656, 0.04676485061645508, 0.045070648193359375, 0.037256479263305664, 0.05652499198913574, 0.06685400009155273, 0.047495365142822266, 0.06213021278381348, 0.05533933639526367, 0.04323410987854004, 0.043703556060791016, 0.046118736267089844, 0.042124271392822266, 0.05057787895202637, 0.03849220275878906, 0.039649248123168945, 0.040566444396972656, 0.04052019119262695, 0.036942243576049805, 0.04284501075744629, 0.05922842025756836, 0.046878814697265625, 0.05788993835449219, 0.04498100280761719, 0.044747352600097656, 0.03915071487426758, 0.04749941825866699, 0.0509190559387207, 0.052991628646850586, 0.05974841117858887, 0.04230475425720215, 0.046941280364990234, 0.05027580261230469, 0.05115771293640137, 0.0415651798248291, 0.050621986389160156, 0.0432133674621582, 0.04407644271850586, 0.060965538024902344, 0.04046511650085449, 0.04361844062805176, 0.05272841453552246, 0.040891170501708984, 0.038065433502197266, 0.045423269271850586, 0.05175900459289551, 0.05032634735107422, 0.0514836311340332, 0.038950204849243164, 0.042272090911865234, 0.03633379936218262, 0.039659738540649414, 0.04243659973144531, 0.05762624740600586, 0.051952362060546875, 0.0408172607421875, 0.037754058837890625, 0.04661273956298828, 0.04268312454223633, 0.03795790672302246, 0.040138959884643555, 0.03905057907104492, 0.04392099380493164, 0.04088115692138672, 0.055552005767822266, 0.03847932815551758, 0.04254937171936035, 0.039502859115600586, 0.046092987060546875, 0.045709848403930664, 0.0385894775390625, 0.04588603973388672, 0.03950691223144531, 0.03995060920715332]</t>
+          <t>[0.09206819534301758, 0.0964193344116211, 0.08474946022033691, 0.08542275428771973, 0.08523297309875488, 0.0904078483581543, 0.09260153770446777, 0.08930277824401855, 0.08373069763183594, 0.08675265312194824, 0.08633160591125488, 0.08600473403930664, 0.09050941467285156, 0.08852648735046387, 0.08831524848937988, 0.0898752212524414, 0.09109687805175781, 0.09374260902404785, 0.09012913703918457, 0.08793187141418457, 0.09076285362243652, 0.08744454383850098, 0.08513069152832031, 0.08855986595153809, 0.08520960807800293, 0.09729719161987305, 0.08732819557189941, 0.09383869171142578, 0.08854103088378906, 0.08839774131774902, 0.08882403373718262, 0.08409619331359863, 0.08951067924499512, 0.09429144859313965, 0.08535456657409668, 0.08745861053466797, 0.09037494659423828, 0.08840298652648926, 0.09078192710876465, 0.08837246894836426, 0.08564925193786621, 0.08746123313903809, 0.08568167686462402, 0.09199261665344238, 0.0852811336517334, 0.08547306060791016, 0.08458590507507324, 0.08423709869384766, 0.09010148048400879, 0.09168863296508789, 0.08583259582519531, 0.08578729629516602, 0.0901181697845459, 0.08713436126708984, 0.09578275680541992, 0.09035968780517578, 0.08506560325622559, 0.08891677856445312, 0.08382010459899902, 0.09397459030151367, 0.08994507789611816, 0.08525657653808594, 0.08626842498779297, 0.08260893821716309, 0.09203767776489258, 0.08476901054382324, 0.09013152122497559, 0.08963704109191895, 0.08956646919250488, 0.08776497840881348, 0.08869647979736328, 0.0917656421661377, 0.08536434173583984, 0.08555364608764648, 0.08391404151916504, 0.0928339958190918, 0.08394908905029297, 0.08932852745056152, 0.08398032188415527, 0.08677506446838379, 0.0845954418182373, 0.08546280860900879, 0.0840003490447998, 0.08642888069152832, 0.09377741813659668, 0.08670878410339355, 0.08521723747253418, 0.08494043350219727, 0.08557486534118652, 0.08407306671142578, 0.09096884727478027, 0.08556270599365234, 0.08421492576599121, 0.08603811264038086, 0.0833597183227539, 0.08463835716247559, 0.08884620666503906, 0.0864553451538086, 0.08956456184387207, 0.08911323547363281]</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>[0.05018258094787598, 0.0329587459564209, 0.030777931213378906, 0.028885602951049805, 0.035962581634521484, 0.031175851821899414, 0.03057575225830078, 0.028798341751098633, 0.029506206512451172, 0.02948307991027832, 0.032319068908691406, 0.029764890670776367, 0.0369267463684082, 0.03242897987365723, 0.03003096580505371, 0.0417482852935791, 0.03944683074951172, 0.028883934020996094, 0.03212404251098633, 0.030133724212646484, 0.030063390731811523, 0.0426177978515625, 0.03138566017150879, 0.03767514228820801, 0.03686213493347168, 0.035811424255371094, 0.047031402587890625, 0.04937458038330078, 0.05255627632141113, 0.04040265083312988, 0.035669803619384766, 0.04171276092529297, 0.03699445724487305, 0.029602766036987305, 0.04040384292602539, 0.0584867000579834, 0.048044443130493164, 0.046811819076538086, 0.04453778266906738, 0.045755624771118164, 0.055280208587646484, 0.05109405517578125, 0.03089594841003418, 0.029328107833862305, 0.04558539390563965, 0.048615217208862305, 0.05037856101989746, 0.04323005676269531, 0.029277801513671875, 0.030405521392822266, 0.03570413589477539, 0.03933835029602051, 0.02939295768737793, 0.029841899871826172, 0.042089223861694336, 0.04980063438415527, 0.04826712608337402, 0.029814958572387695, 0.02939462661743164, 0.029668331146240234, 0.04572010040283203, 0.03572511672973633, 0.0381464958190918, 0.03133130073547363, 0.05156755447387695, 0.051631927490234375, 0.06180262565612793, 0.03538155555725098, 0.03330421447753906, 0.028456449508666992, 0.03190875053405762, 0.03022003173828125, 0.028310060501098633, 0.030178070068359375, 0.052031755447387695, 0.060495615005493164, 0.04163837432861328, 0.03923606872558594, 0.03171253204345703, 0.03208041191101074, 0.030208826065063477, 0.03950071334838867, 0.03267073631286621, 0.03329920768737793, 0.06888198852539062, 0.06730842590332031, 0.05755186080932617, 0.04382967948913574, 0.0333402156829834, 0.03719925880432129, 0.03349637985229492, 0.033240556716918945, 0.07790184020996094, 0.07249736785888672, 0.03579592704772949, 0.04025149345397949, 0.032723426818847656, 0.030982017517089844, 0.030646085739135742, 0.04258918762207031]</t>
+          <t>[0.07656145095825195, 0.07075762748718262, 0.07211923599243164, 0.08612537384033203, 0.07179498672485352, 0.06865596771240234, 0.06751394271850586, 0.06825518608093262, 0.06734585762023926, 0.06837272644042969, 0.0675656795501709, 0.06824278831481934, 0.06727838516235352, 0.06915688514709473, 0.0688927173614502, 0.06688213348388672, 0.06790709495544434, 0.06976914405822754, 0.06741213798522949, 0.06826305389404297, 0.06737828254699707, 0.06932473182678223, 0.06833648681640625, 0.06816744804382324, 0.06756591796875, 0.06757760047912598, 0.0683140754699707, 0.06891536712646484, 0.06911826133728027, 0.0681009292602539, 0.06817078590393066, 0.06857609748840332, 0.06853461265563965, 0.06821751594543457, 0.07527875900268555, 0.07051992416381836, 0.06770491600036621, 0.06909394264221191, 0.06772303581237793, 0.0677940845489502, 0.06779837608337402, 0.06953263282775879, 0.0680549144744873, 0.06862211227416992, 0.06908297538757324, 0.06757712364196777, 0.06865310668945312, 0.06941032409667969, 0.0682063102722168, 0.06862330436706543, 0.06969451904296875, 0.06855988502502441, 0.06938695907592773, 0.06856560707092285, 0.06897711753845215, 0.06963801383972168, 0.06990361213684082, 0.06836843490600586, 0.06831860542297363, 0.06900238990783691, 0.06928372383117676, 0.06830191612243652, 0.06836128234863281, 0.06872200965881348, 0.06907892227172852, 0.06745338439941406, 0.06926631927490234, 0.06830644607543945, 0.06977391242980957, 0.06772732734680176, 0.0680232048034668, 0.0684356689453125, 0.07611775398254395, 0.07119917869567871, 0.06869912147521973, 0.068756103515625, 0.06795477867126465, 0.06982827186584473, 0.0675508975982666, 0.06806039810180664, 0.06764340400695801, 0.06766819953918457, 0.06899428367614746, 0.06821298599243164, 0.06794261932373047, 0.06928896903991699, 0.06887602806091309, 0.06731033325195312, 0.06913876533508301, 0.0690774917602539, 0.06883430480957031, 0.06881117820739746, 0.06831693649291992, 0.06927990913391113, 0.06837630271911621, 0.06774306297302246, 0.0691828727722168, 0.06888842582702637, 0.06916141510009766, 0.0686039924621582]</t>
         </is>
       </c>
       <c r="AF2" t="n">
@@ -802,25 +734,25 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>65.73</v>
+        <v>65.83</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2021282911300659</v>
+        <v>0.352546215057373</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06416094303131104</v>
+        <v>0.1211365461349487</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'x_0_1': [693], 'x_3_1': [3543, 753], 's_0_3_1': [3603], 'x_7_1': [708], 's_0_7_1': [3513], 'x_8_1': [783, 3588], 's_0_8_1': [3618], 't_0': [3678], 'x_0_2': [3663, 739], 'x_2_1': [3573], 's_2_3_1': [768], 'x_5_1': [827, 3424], 's_3_5_1': [3529], 's_3_7_1': [3558], 's_3_8_1': [723], 't_3': [858], 'x_3_2': [3679, 3768, 754], 't_7': [3633], 'x_7_2': [3648], 's_2_8_1': [843], 't_8': [828], 'x_8_2': [3738], 's_0_3_2': [3753], 's_0_7_2': [678], 's_0_8_2': [3723], 'x_2_2': [813, 3694], 's_2_3_2': [814], 'x_5_2': [888, 887], 's_3_5_2': [873], 's_3_7_2': [724], 's_3_8_2': [694], 's_2_8_2': [769], 't_2': [798], 'x_6_1': [932], 's_5_6_1': [947], 'x_9_1': [3439], 's_5_9_1': [812], 't_5': [3469], 'x_6_2': [3364], 's_5_6_2': [872], 'x_9_2': [857, 3454], 's_5_9_2': [3484], 't_6': [3379], 'x_4_1': [917], 's_4_9_1': [902], 't_9': [962], 'x_4_2': [3334], 's_4_9_2': [842], 't_4': [3349], 'x_1_1': [4272], 't_1': [4287], 'x_1_2': [2482]}</t>
+          <t>{'x_0_1': [693], 'x_3_1': [3543, 753], 's_0_3_1': [3603], 'x_7_1': [708], 's_0_7_1': [3513], 'x_8_1': [783, 3588], 's_0_8_1': [3618], 't_0': [3678], 'x_0_2': [3663, 739], 'x_2_1': [3573], 's_2_3_1': [768], 'x_5_1': [827, 3424], 's_3_5_1': [3529], 's_3_7_1': [3558], 's_3_8_1': [723], 't_3': [858], 'x_3_2': [3679, 3768, 754], 't_7': [3633], 'x_7_2': [3648], 's_2_8_1': [843], 't_8': [828], 'x_8_2': [3738], 's_0_3_2': [3753], 's_0_7_2': [678], 's_0_8_2': [3723], 'x_2_2': [813, 3694], 's_2_3_2': [814], 'x_5_2': [888, 887], 's_3_5_2': [873], 's_3_7_2': [724], 's_3_8_2': [694], 's_2_8_2': [769], 't_2': [798], 'x_6_1': [932], 's_5_6_1': [947], 'x_9_1': [3439], 's_5_9_1': [812], 't_5': [3469], 'x_6_2': [3364], 's_5_6_2': [872], 'x_9_2': [857, 3454], 's_5_9_2': [3484], 't_6': [3379], 'x_4_1': [917], 's_4_9_1': [902], 't_9': [962], 'x_4_2': [3334], 's_4_9_2': [842], 't_4': [3349], 'x_1_1': [2385], 't_1': [2922], 'x_1_2': [2370]}</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'x_0_1': [1160], 'x_3_1': [3995], 'x_7_1': [1145], 'x_8_1': [4010], 'x_0_2': [3965], 'x_2_1': [1040], 'x_5_1': [995], 'x_3_2': [1055], 'x_7_2': [3980], 'x_8_2': [1070], 'x_2_2': [4025], 'x_5_2': [4040], 'x_6_1': [4070], 'x_9_1': [3934], 'x_6_2': [936], 'x_9_2': [965], 'x_4_1': [890], 'x_4_2': [3979], 'x_1_1': [4239], 'x_1_2': [4238]}</t>
+          <t>{'x_0_1': [1160], 'x_3_1': [3995], 'x_7_1': [1145], 'x_8_1': [4010], 'x_0_2': [3965], 'x_2_1': [1040], 'x_5_1': [995], 'x_3_2': [1055], 'x_7_2': [3980], 'x_8_2': [1070], 'x_2_2': [4025], 'x_5_2': [4040], 'x_6_1': [4070], 'x_9_1': [3934], 'x_6_2': [936], 'x_9_2': [965], 'x_4_1': [890], 'x_4_2': [3979], 'x_1_1': [3099], 'x_1_2': [1785]}</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -830,26 +762,26 @@
         <v>20</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2613999843597412</v>
+        <v>0.4669625759124756</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0746924877166748</v>
+        <v>0.1192600727081299</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[66, 66, 67, 64, 65, 65, 65, 69, 61, 64, 64, 67, 65, 67, 67, 67, 67, 65, 71, 68, 69, 63, 67, 66, 64, 65, 67, 66, 64, 66, 68, 65, 70, 67, 64, 66, 66, 68, 66, 64, 65, 64, 64, 61, 67, 64, 64, 68, 64, 64, 66, 67, 64, 64, 67, 67, 70, 67, 68, 65, 69, 65, 65, 65, 66, 71, 65, 66, 63, 62, 66, 67, 64, 64, 65, 73, 66, 70, 63, 64, 63, 64, 63, 70, 64, 64, 63, 68, 64, 70, 65, 62, 67, 68, 65, 63, 62, 69, 66, 63]</t>
+          <t>[66, 66, 67, 64, 65, 65, 65, 69, 61, 64, 64, 67, 65, 67, 67, 67, 67, 72, 71, 68, 69, 63, 67, 66, 64, 65, 67, 66, 64, 66, 68, 65, 70, 67, 64, 66, 66, 68, 66, 64, 65, 64, 64, 61, 67, 64, 64, 68, 64, 64, 66, 67, 64, 64, 67, 67, 70, 67, 68, 65, 69, 65, 65, 65, 66, 71, 65, 66, 63, 62, 66, 70, 64, 64, 65, 73, 66, 70, 63, 64, 63, 64, 63, 70, 64, 64, 63, 68, 64, 70, 65, 62, 67, 68, 65, 63, 62, 69, 66, 63]</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>[20, 22, 23, 22, 20, 23, 20, 24, 22, 21, 22, 22, 24, 22, 20, 24, 21, 22, 21, 22, 21, 22, 22, 21, 22, 21, 21, 22, 20, 22, 23, 23, 21, 21, 21, 22, 22, 22, 20, 20, 22, 22, 23, 21, 20, 21, 23, 22, 20, 20, 21, 22, 22, 22, 22, 21, 22, 20, 22, 20, 20, 21, 24, 21, 20, 25, 21, 22, 22, 21, 21, 22, 21, 22, 22, 20, 23, 24, 20, 21, 24, 22, 22, 20, 20, 22, 22, 22, 23, 22, 23, 25, 23, 21, 22, 20, 24, 20, 22, 24]</t>
+          <t>[20, 22, 23, 22, 20, 23, 20, 24, 22, 21, 22, 22, 23, 22, 20, 24, 21, 22, 21, 22, 21, 22, 22, 21, 22, 21, 21, 22, 20, 22, 23, 23, 21, 21, 21, 22, 22, 22, 20, 20, 22, 22, 23, 21, 20, 21, 23, 22, 20, 20, 21, 22, 22, 22, 22, 21, 22, 20, 22, 20, 20, 20, 24, 21, 22, 25, 22, 22, 22, 21, 21, 22, 21, 22, 22, 20, 23, 24, 20, 20, 24, 22, 22, 20, 20, 22, 22, 22, 23, 22, 23, 25, 23, 21, 22, 20, 24, 20, 22, 24]</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>2.304387558593827</v>
+        <v>2.420681096240678</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.243163121016122</v>
+        <v>1.235011143776656</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
@@ -859,12 +791,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>[0.15979838371276855, 0.26423048973083496, 0.2451920509338379, 0.22049403190612793, 0.20303654670715332, 0.21271061897277832, 0.15213537216186523, 0.19319438934326172, 0.2613999843597412, 0.19970130920410156, 0.3836090564727783, 0.17961359024047852, 0.22723007202148438, 0.23715567588806152, 0.2972755432128906, 0.17679119110107422, 0.2983272075653076, 0.16966557502746582, 0.16681265830993652, 0.20623159408569336, 0.26186037063598633, 0.13871359825134277, 0.2020254135131836, 0.15863633155822754, 0.17490410804748535, 0.1859426498413086, 0.1739978790283203, 0.18329071998596191, 0.2187056541442871, 0.18959450721740723, 0.2601590156555176, 0.265622615814209, 0.18763995170593262, 0.3237488269805908, 0.18109655380249023, 0.24682259559631348, 0.1635723114013672, 0.25220251083374023, 0.21079444885253906, 0.22080683708190918, 0.1909337043762207, 0.2109670639038086, 0.23725414276123047, 0.16811513900756836, 0.2380833625793457, 0.3616955280303955, 0.31088995933532715, 0.18004846572875977, 0.18342113494873047, 0.2173457145690918, 0.2066342830657959, 0.22195219993591309, 0.25542187690734863, 0.17931723594665527, 0.2093038558959961, 0.2704019546508789, 0.18348383903503418, 0.14439034461975098, 0.1884598731994629, 0.2310631275177002, 0.17878937721252441, 0.19903779029846191, 0.40767788887023926, 0.22614192962646484, 0.17000222206115723, 0.18830275535583496, 0.2181088924407959, 0.18799805641174316, 0.20208215713500977, 0.18466854095458984, 0.20476245880126953, 0.2613379955291748, 0.17845773696899414, 0.23015999794006348, 0.2691805362701416, 0.15709304809570312, 0.244218111038208, 0.25481152534484863, 0.21639442443847656, 0.19067859649658203, 0.1872270107269287, 0.21824145317077637, 0.20217442512512207, 0.16694307327270508, 0.19587230682373047, 0.15970444679260254, 0.17970752716064453, 0.16132473945617676, 0.23517465591430664, 0.19685721397399902, 0.1986095905303955, 0.1909809112548828, 0.24954485893249512, 0.20931124687194824, 0.16796612739562988, 0.24144911766052246, 0.19356894493103027, 0.20170950889587402, 0.24111485481262207, 0.15942764282226562]</t>
+          <t>[0.30582332611083984, 0.4395732879638672, 0.36391472816467285, 0.37311697006225586, 0.3699374198913574, 0.3945281505584717, 0.2894103527069092, 0.3506960868835449, 0.4669625759124756, 0.3740580081939697, 0.6755697727203369, 0.3236064910888672, 0.3567626476287842, 0.40586400032043457, 0.4908759593963623, 0.31098413467407227, 0.5068888664245605, 0.2913243770599365, 0.30024218559265137, 0.3924088478088379, 0.4464762210845947, 0.2620689868927002, 0.3491525650024414, 0.2605717182159424, 0.30110836029052734, 0.2845785617828369, 0.2956733703613281, 0.30437326431274414, 0.3622453212738037, 0.3079707622528076, 0.44878649711608887, 0.46850132942199707, 0.32138800621032715, 0.530580997467041, 0.31978893280029297, 0.37201452255249023, 0.2932121753692627, 0.4165024757385254, 0.34350085258483887, 0.3556795120239258, 0.2814500331878662, 0.35286545753479004, 0.3471493721008301, 0.3039357662200928, 0.3277134895324707, 0.5447711944580078, 0.4813244342803955, 0.30591678619384766, 0.31644415855407715, 0.36040759086608887, 0.3066518306732178, 0.3292863368988037, 0.3900892734527588, 0.31867313385009766, 0.3987104892730713, 0.42439794540405273, 0.3317432403564453, 0.276233434677124, 0.35539865493774414, 0.3891785144805908, 0.2794172763824463, 0.29343533515930176, 0.5938558578491211, 0.407442569732666, 0.28252530097961426, 0.33927178382873535, 0.38360047340393066, 0.33579587936401367, 0.35222697257995605, 0.3249790668487549, 0.37642502784729004, 0.2955150604248047, 0.2999129295349121, 0.4272332191467285, 0.5124294757843018, 0.2831876277923584, 0.4091658592224121, 0.46637868881225586, 0.3657090663909912, 0.32213592529296875, 0.3565824031829834, 0.3521134853363037, 0.3570249080657959, 0.2999129295349121, 0.3625330924987793, 0.27530765533447266, 0.3282608985900879, 0.2843351364135742, 0.4096696376800537, 0.34150004386901855, 0.3631570339202881, 0.32913994789123535, 0.4281952381134033, 0.38191795349121094, 0.29256725311279297, 0.43514442443847656, 0.3466527462005615, 0.3604707717895508, 0.38449978828430176, 0.4380183219909668]</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>[0.0746924877166748, 0.06216096878051758, 0.05867648124694824, 0.05522775650024414, 0.06814217567443848, 0.07210874557495117, 0.06196427345275879, 0.06351590156555176, 0.06381726264953613, 0.05737471580505371, 0.054369211196899414, 0.06507539749145508, 0.07932448387145996, 0.06853556632995605, 0.0722959041595459, 0.05315876007080078, 0.06025958061218262, 0.08669042587280273, 0.09523630142211914, 0.09245967864990234, 0.0970451831817627, 0.0909733772277832, 0.07421684265136719, 0.07536911964416504, 0.07694816589355469, 0.05859565734863281, 0.06554436683654785, 0.05988764762878418, 0.05952262878417969, 0.05829787254333496, 0.05788278579711914, 0.0662837028503418, 0.053534746170043945, 0.06222128868103027, 0.059467315673828125, 0.08192181587219238, 0.09386658668518066, 0.08543610572814941, 0.06738424301147461, 0.05118107795715332, 0.05630850791931152, 0.07626748085021973, 0.10833430290222168, 0.07436275482177734, 0.04996609687805176, 0.05840706825256348, 0.057439327239990234, 0.060579538345336914, 0.07954931259155273, 0.09567427635192871, 0.05947065353393555, 0.0865945816040039, 0.05419492721557617, 0.05460810661315918, 0.06304764747619629, 0.05146479606628418, 0.057320356369018555, 0.05843329429626465, 0.06302309036254883, 0.0654301643371582, 0.06212353706359863, 0.05686521530151367, 0.06586170196533203, 0.06538033485412598, 0.056885719299316406, 0.05824685096740723, 0.0580754280090332, 0.07793545722961426, 0.06623411178588867, 0.05487799644470215, 0.05247664451599121, 0.05639004707336426, 0.07080602645874023, 0.07183218002319336, 0.11594200134277344, 0.06279921531677246, 0.06379914283752441, 0.06507110595703125, 0.05958199501037598, 0.054665565490722656, 0.08876514434814453, 0.08173108100891113, 0.06585693359375, 0.06834721565246582, 0.058890342712402344, 0.05585837364196777, 0.0804140567779541, 0.10796213150024414, 0.07301163673400879, 0.07195830345153809, 0.07683110237121582, 0.059169769287109375, 0.05550861358642578, 0.06732773780822754, 0.0564115047454834, 0.05398392677307129, 0.0681157112121582, 0.08056163787841797, 0.06450462341308594, 0.06752729415893555]</t>
+          <t>[0.11926007270812988, 0.13080978393554688, 0.1225888729095459, 0.11930298805236816, 0.12523198127746582, 0.14546942710876465, 0.12381291389465332, 0.13103199005126953, 0.11724400520324707, 0.12174320220947266, 0.11696434020996094, 0.12459611892700195, 0.15048980712890625, 0.12403368949890137, 0.1333787441253662, 0.11527466773986816, 0.1167151927947998, 0.11423063278198242, 0.12046122550964355, 0.1263740062713623, 0.11693835258483887, 0.12912821769714355, 0.1390972137451172, 0.12790131568908691, 0.13505148887634277, 0.11649584770202637, 0.11484122276306152, 0.11230921745300293, 0.12206768989562988, 0.12206625938415527, 0.12056779861450195, 0.12845587730407715, 0.11324596405029297, 0.11467957496643066, 0.12193155288696289, 0.12035655975341797, 0.11970400810241699, 0.12011933326721191, 0.11836504936218262, 0.11355447769165039, 0.12458086013793945, 0.13167953491210938, 0.12667155265808105, 0.12336397171020508, 0.11033415794372559, 0.11611151695251465, 0.11984634399414062, 0.12866926193237305, 0.11162281036376953, 0.11600756645202637, 0.12194347381591797, 0.1287074089050293, 0.11612319946289062, 0.11745882034301758, 0.12545394897460938, 0.11143279075622559, 0.11829853057861328, 0.12120819091796875, 0.1202840805053711, 0.12764835357666016, 0.13048505783081055, 0.12376713752746582, 0.13193988800048828, 0.12058210372924805, 0.12471151351928711, 0.1233220100402832, 0.11989378929138184, 0.13358139991760254, 0.11565470695495605, 0.11835265159606934, 0.11542868614196777, 0.1191415786743164, 0.1296374797821045, 0.13191604614257812, 0.1203012466430664, 0.11296200752258301, 0.11583781242370605, 0.1194002628326416, 0.11623883247375488, 0.11187148094177246, 0.1404428482055664, 0.12636876106262207, 0.12186574935913086, 0.1332414150238037, 0.11572599411010742, 0.11680293083190918, 0.11501955986022949, 0.12637925148010254, 0.11719965934753418, 0.12908577919006348, 0.1427135467529297, 0.12443208694458008, 0.12106490135192871, 0.12779998779296875, 0.11914992332458496, 0.11337447166442871, 0.13224220275878906, 0.1410360336303711, 0.1191871166229248, 0.12692618370056152]</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -945,10 +877,10 @@
         <v>75.69</v>
       </c>
       <c r="P4" t="n">
-        <v>2.794422745704651</v>
+        <v>4.570555806159973</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3639786243438721</v>
+        <v>0.6124551296234131</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -967,10 +899,10 @@
         <v>67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.519839763641357</v>
+        <v>4.118863821029663</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4868578910827637</v>
+        <v>0.7381832599639893</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -996,12 +928,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>[2.993114471435547, 2.6868839263916016, 2.9308297634124756, 1.5776562690734863, 1.9185848236083984, 3.883709669113159, 2.9518051147460938, 2.7337148189544678, 3.1828582286834717, 1.801802158355713, 3.053002119064331, 4.656897306442261, 2.1952483654022217, 2.9652531147003174, 2.5329742431640625, 2.9831998348236084, 3.7688887119293213, 3.7616450786590576, 3.457782745361328, 3.3737454414367676, 2.996033191680908, 2.0191571712493896, 2.5198397636413574, 3.0003483295440674, 3.374690532684326, 2.2486257553100586, 2.8530874252319336, 2.7609260082244873, 2.65166974067688, 4.690653324127197, 1.6705725193023682, 3.396177053451538, 2.872032642364502, 3.5446128845214844, 2.9467012882232666, 2.877485513687134, 2.465463161468506, 3.2071311473846436, 2.7211267948150635, 4.071564435958862, 2.322227716445923, 2.4630167484283447, 2.8593780994415283, 2.9064836502075195, 2.394252061843872, 3.836409330368042, 1.8821167945861816, 3.201855421066284, 3.682705879211426, 3.741316795349121, 3.043498992919922, 3.605252265930176, 2.732036590576172, 4.380478143692017, 2.695385217666626, 3.751621723175049, 2.628091335296631, 3.5120606422424316, 2.277604341506958, 2.3990397453308105, 1.6821067333221436, 2.7316794395446777, 2.5817196369171143, 2.053992509841919, 3.6251349449157715, 2.1744625568389893, 2.5561952590942383, 2.225260019302368, 3.310332775115967, 1.785811424255371, 3.134190320968628, 4.632100582122803, 2.1761634349823, 2.722944498062134, 3.2942347526550293, 2.6538193225860596, 2.352077007293701, 2.9067723751068115, 2.9833884239196777, 2.9459216594696045, 2.387322187423706, 1.8238153457641602, 3.5366573333740234, 2.068881034851074, 4.829822063446045, 1.9102506637573242, 3.0461599826812744, 2.188584089279175, 2.503180742263794, 1.8678548336029053, 2.8279194831848145, 2.4712109565734863, 2.0114011764526367, 2.146183729171753, 2.335252285003662, 2.6991336345672607, 3.1576955318450928, 2.426482677459717, 1.909923791885376, 3.3180036544799805]</t>
+          <t>[5.173786163330078, 4.657570123672485, 5.010429859161377, 2.6868085861206055, 3.324000120162964, 6.483529090881348, 4.617432117462158, 4.353151321411133, 5.380942344665527, 2.955676794052124, 5.06892728805542, 8.190916538238525, 3.7798731327056885, 4.927604913711548, 3.7410166263580322, 4.616154909133911, 5.779977560043335, 5.710017919540405, 5.30871319770813, 4.429244518280029, 4.711625099182129, 3.422516107559204, 4.118863821029663, 4.890928030014038, 5.660813093185425, 3.9610044956207275, 4.699363708496094, 4.713324785232544, 4.526419401168823, 8.026501178741455, 2.773775339126587, 5.728981256484985, 4.531560659408569, 5.697793245315552, 4.906123638153076, 4.609550952911377, 4.280294895172119, 5.353898048400879, 4.224026203155518, 7.307337284088135, 3.529893398284912, 4.185950756072998, 4.325727224349976, 5.062630891799927, 3.721569299697876, 6.5845983028411865, 3.1331799030303955, 4.690286874771118, 4.995689868927002, 5.796661376953125, 4.816887617111206, 5.598032474517822, 4.413585424423218, 6.6182920932769775, 4.0891289710998535, 5.534244537353516, 4.499079465866089, 5.5529632568359375, 3.8288795948028564, 3.9209697246551514, 2.766664743423462, 4.313526630401611, 4.2268195152282715, 3.437403440475464, 5.726402759552002, 3.673492908477783, 4.040726661682129, 3.6006083488464355, 5.514611482620239, 3.1300952434539795, 5.059973478317261, 8.121376991271973, 3.809053421020508, 4.7015275955200195, 5.690532207489014, 4.644904375076294, 3.907857894897461, 5.112416982650757, 5.151680946350098, 4.367503881454468, 3.6423022747039795, 3.14962100982666, 5.896762132644653, 3.3887054920196533, 7.6731531620025635, 2.9760677814483643, 5.2166666984558105, 3.809635639190674, 4.492961168289185, 3.212352991104126, 5.064119815826416, 4.42917013168335, 3.4378879070281982, 3.8418402671813965, 3.741077423095703, 4.373960494995117, 5.5121049880981445, 4.187035322189331, 3.3308024406433105, 5.858783721923828]</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>[0.2503318786621094, 0.37138795852661133, 0.19729876518249512, 0.45612406730651855, 0.39525580406188965, 0.41822147369384766, 0.23183035850524902, 0.3680109977722168, 0.29342103004455566, 0.45511794090270996, 0.2545895576477051, 0.4507310390472412, 0.23306822776794434, 0.20618605613708496, 0.4118356704711914, 0.27066802978515625, 0.2710251808166504, 0.24878263473510742, 0.2220325469970703, 0.43938732147216797, 0.3953585624694824, 0.3030712604522705, 0.4176499843597412, 0.3168172836303711, 0.39649033546447754, 0.23533272743225098, 0.40213966369628906, 0.4022367000579834, 0.2698945999145508, 0.39539265632629395, 0.39450526237487793, 0.3381819725036621, 0.25608015060424805, 0.41436028480529785, 0.2598586082458496, 0.3196117877960205, 0.2762949466705322, 0.33095645904541016, 0.2644968032836914, 0.3933289051055908, 0.23978018760681152, 0.25461697578430176, 0.25011253356933594, 0.2603614330291748, 0.6430947780609131, 0.5290951728820801, 0.4337141513824463, 0.34950900077819824, 0.361605167388916, 0.37624287605285645, 0.5524322986602783, 0.3804183006286621, 0.1922292709350586, 0.31659793853759766, 0.4025561809539795, 0.4505751132965088, 0.48685789108276367, 0.27768588066101074, 0.2675590515136719, 0.5030372142791748, 0.25970911979675293, 0.5009360313415527, 0.484083890914917, 0.3520512580871582, 0.30416178703308105, 0.3839530944824219, 0.445202112197876, 0.3089115619659424, 0.514601469039917, 0.621361255645752, 0.22222065925598145, 0.4423708915710449, 0.43930578231811523, 0.3846428394317627, 0.3303515911102295, 0.24549055099487305, 0.39370179176330566, 0.423553466796875, 0.20611238479614258, 0.42808985710144043, 0.3663520812988281, 0.5584912300109863, 0.4167516231536865, 0.3172779083251953, 0.44420456886291504, 0.5055468082427979, 0.32763218879699707, 0.35990309715270996, 0.27182483673095703, 0.33005738258361816, 0.24934792518615723, 0.3254399299621582, 0.31337523460388184, 0.404843807220459, 0.4717423915863037, 0.5418555736541748, 0.3125312328338623, 0.3733961582183838, 0.3951539993286133, 0.340259313583374]</t>
+          <t>[0.4554264545440674, 0.659968376159668, 0.373760461807251, 0.7757976055145264, 0.6419191360473633, 0.7297060489654541, 0.41720151901245117, 0.6111726760864258, 0.5444378852844238, 0.8149464130401611, 0.47858738899230957, 0.79075026512146, 0.4235680103302002, 0.40823793411254883, 0.7391564846038818, 0.5090060234069824, 0.5156853199005127, 0.48120903968811035, 0.43517351150512695, 0.7706050872802734, 0.6823136806488037, 0.5247323513031006, 0.7423887252807617, 0.5649008750915527, 0.643089771270752, 0.4237067699432373, 0.7269842624664307, 0.6930322647094727, 0.4739081859588623, 0.7213964462280273, 0.6842794418334961, 0.6487739086151123, 0.4858381748199463, 0.7219839096069336, 0.4895949363708496, 0.6008651256561279, 0.5133135318756104, 0.539902925491333, 0.46390366554260254, 0.6640396118164062, 0.4124729633331299, 0.4779214859008789, 0.4678971767425537, 0.5135705471038818, 1.1388676166534424, 0.8882958889007568, 0.7587192058563232, 0.6234581470489502, 0.6111066341400146, 0.6772630214691162, 0.9911386966705322, 0.706740140914917, 0.3469278812408447, 0.526179313659668, 0.593397855758667, 0.7116632461547852, 0.7381832599639893, 0.4761979579925537, 0.45123791694641113, 0.6635081768035889, 0.3875889778137207, 0.781015157699585, 0.771888256072998, 0.6137375831604004, 0.5363810062408447, 0.5666530132293701, 0.7831895351409912, 0.5127458572387695, 0.7681424617767334, 0.9058701992034912, 0.4251706600189209, 0.7055554389953613, 0.5930240154266357, 0.6885216236114502, 0.6170921325683594, 0.41532039642333984, 0.6873693466186523, 0.735680103302002, 0.3387417793273926, 0.7468056678771973, 0.6602792739868164, 0.9745373725891113, 0.7512674331665039, 0.5257902145385742, 0.7310595512390137, 0.7922067642211914, 0.5735824108123779, 0.5934937000274658, 0.46096277236938477, 0.5643472671508789, 0.4457557201385498, 0.5978221893310547, 0.525932788848877, 0.693178653717041, 0.8393068313598633, 0.9105360507965088, 0.5711641311645508, 0.6232335567474365, 0.7140743732452393, 0.6037814617156982]</t>
         </is>
       </c>
       <c r="AF4" t="n">
@@ -1076,16 +1008,16 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>671.6</v>
+        <v>671.86</v>
       </c>
       <c r="O5" t="n">
         <v>182.86</v>
       </c>
       <c r="P5" t="n">
-        <v>16.45377421379089</v>
+        <v>27.35954833030701</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.533160209655762</v>
+        <v>2.634580492973328</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1104,14 +1036,14 @@
         <v>160</v>
       </c>
       <c r="V5" t="n">
-        <v>19.49482464790344</v>
+        <v>33.49398565292358</v>
       </c>
       <c r="W5" t="n">
-        <v>1.287903547286987</v>
+        <v>2.230393409729004</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[695, 664, 653, 724, 702, 638, 638, 643, 649, 693, 672, 704, 664, 656, 719, 677, 635, 676, 691, 626, 665, 659, 658, 669, 660, 684, 668, 685, 709, 598, 697, 679, 669, 748, 672, 689, 670, 710, 654, 688, 656, 655, 630, 706, 659, 737, 629, 637, 645, 635, 693, 607, 642, 688, 673, 661, 645, 652, 684, 817, 635, 657, 708, 651, 720, 645, 720, 663, 666, 693, 641, 623, 659, 647, 672, 645, 700, 641, 725, 722, 695, 656, 659, 686, 650, 691, 714, 650, 666, 655, 683, 711, 681, 698, 669, 661, 651, 669, 658, 623]</t>
+          <t>[695, 664, 653, 724, 702, 638, 638, 643, 649, 693, 672, 704, 664, 656, 719, 677, 635, 676, 691, 626, 665, 659, 658, 669, 660, 684, 668, 685, 709, 598, 697, 679, 669, 748, 672, 689, 670, 710, 654, 688, 656, 655, 630, 706, 659, 737, 629, 637, 645, 635, 693, 633, 642, 688, 673, 661, 645, 652, 684, 817, 635, 657, 708, 651, 720, 645, 720, 663, 666, 693, 641, 623, 659, 647, 672, 645, 700, 641, 725, 722, 695, 656, 659, 686, 650, 691, 714, 650, 666, 655, 683, 711, 681, 698, 669, 661, 651, 669, 658, 623]</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1052,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>32.59856847572707</v>
+        <v>32.17911362258683</v>
       </c>
       <c r="AA5" t="n">
         <v>10.36117461458591</v>
@@ -1133,12 +1065,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>[9.604318857192993, 21.66889452934265, 19.546870231628418, 18.32142162322998, 11.790000915527344, 12.999125242233276, 22.122227668762207, 15.58138370513916, 15.887590646743774, 16.432002782821655, 11.985329627990723, 11.43387746810913, 16.875669240951538, 19.438530921936035, 8.890981674194336, 12.498849391937256, 16.542588710784912, 20.057408094406128, 9.563971996307373, 24.450122117996216, 15.454905033111572, 19.615360021591187, 18.864808797836304, 13.471304655075073, 27.386586904525757, 14.452989339828491, 12.913864850997925, 9.87545895576477, 37.49815511703491, 19.494824647903442, 15.371647596359253, 13.376059532165527, 21.05425453186035, 11.577402830123901, 20.153119325637817, 18.540449142456055, 14.892114162445068, 9.571292638778687, 13.889538526535034, 16.88495635986328, 12.321699857711792, 22.914607286453247, 19.909444332122803, 15.58903193473816, 13.09622311592102, 8.851169347763062, 26.616251945495605, 18.05332922935486, 18.5068998336792, 27.810479402542114, 13.781873941421509, 37.555009603500366, 16.308529376983643, 20.7993266582489, 18.435356616973877, 14.19313931465149, 23.478875398635864, 14.00128698348999, 17.087353229522705, 9.184831619262695, 14.909386396408081, 14.804462432861328, 13.711822509765625, 14.902658462524414, 20.605138778686523, 26.038312196731567, 8.314136028289795, 19.448791980743408, 17.721354961395264, 12.557542562484741, 21.68129801750183, 19.152427196502686, 28.025695085525513, 26.295098304748535, 12.444260835647583, 21.236469745635986, 11.918709993362427, 19.362521171569824, 20.58319354057312, 10.613019466400146, 11.597190618515015, 22.080434799194336, 22.438178777694702, 14.529127597808838, 16.475545644760132, 10.310415744781494, 9.399959564208984, 22.48203945159912, 20.71800184249878, 20.46940517425537, 21.34337019920349, 10.78147268295288, 15.702741622924805, 18.08637285232544, 5.353690147399902, 10.782323122024536, 29.814940929412842, 10.963452816009521, 11.226328134536743, 19.000515699386597]</t>
+          <t>[15.941887140274048, 37.299721002578735, 33.2013475894928, 31.290812015533447, 19.78487229347229, 22.310400009155273, 37.879154205322266, 26.704513549804688, 25.307985305786133, 28.11318278312683, 21.243737936019897, 19.700688123703003, 29.300116539001465, 33.346137046813965, 15.039162397384644, 22.010218143463135, 27.889893531799316, 34.119377851486206, 16.79857873916626, 42.36774182319641, 26.363958835601807, 33.45995092391968, 32.57075023651123, 23.38450026512146, 46.82540726661682, 24.93504047393799, 22.8490469455719, 17.505982398986816, 60.33023762702942, 33.493985652923584, 26.39983606338501, 23.307185888290405, 36.3849675655365, 20.84934687614441, 36.16032814979553, 32.31173634529114, 25.518202781677246, 16.929147958755493, 24.483938455581665, 30.07254457473755, 21.784558057785034, 41.267510652542114, 35.883413791656494, 27.86690878868103, 23.368566751480103, 15.504564762115479, 45.023624658584595, 26.546820163726807, 29.8931827545166, 46.24976301193237, 23.784891366958618, 60.33264708518982, 29.154271602630615, 37.2282989025116, 27.026164770126343, 23.489489316940308, 30.133581399917603, 23.04177761077881, 30.250684022903442, 16.19096350669861, 25.90529465675354, 24.134358644485474, 22.925122022628784, 24.35790729522705, 33.67608618736267, 40.84446334838867, 14.553755760192871, 31.29647207260132, 28.98376774787903, 20.4788179397583, 35.41104769706726, 32.34567070007324, 47.30712962150574, 38.57242465019226, 18.70139455795288, 34.73780632019043, 19.781131267547607, 30.60141348838806, 34.15121674537659, 17.52064347267151, 18.636742115020752, 36.6507773399353, 34.376243114471436, 24.42835831642151, 25.113081693649292, 16.784244298934937, 14.095867395401001, 32.17780637741089, 27.69293189048767, 34.985843896865845, 34.3378541469574, 17.259973526000977, 26.352245807647705, 30.31740975379944, 9.146891593933105, 18.17304491996765, 51.18634343147278, 16.99757742881775, 19.12623691558838, 32.53827691078186]</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>[0.9681823253631592, 1.2951710224151611, 1.6598477363586426, 1.0353724956512451, 1.69791579246521, 1.9507055282592773, 1.5358471870422363, 2.008373737335205, 1.6980993747711182, 2.1320602893829346, 1.7760717868804932, 1.4273593425750732, 1.5229344367980957, 1.7871625423431396, 1.694295883178711, 1.2463247776031494, 1.6298103332519531, 1.2022802829742432, 1.744654655456543, 1.8799233436584473, 1.364511251449585, 1.0387687683105469, 2.3923802375793457, 1.3337278366088867, 1.0655462741851807, 2.3319709300994873, 1.340090036392212, 0.865149974822998, 1.7363946437835693, 1.7967278957366943, 1.4761524200439453, 1.530932903289795, 0.9362070560455322, 1.8522884845733643, 2.4353599548339844, 2.108633279800415, 1.5353875160217285, 1.3208305835723877, 1.662952184677124, 1.9686994552612305, 2.008160352706909, 1.2879035472869873, 2.0649454593658447, 2.2592411041259766, 2.203904390335083, 1.465240478515625, 1.1137292385101318, 1.5679376125335693, 1.4693434238433838, 1.5856688022613525, 1.2258002758026123, 1.816816806793213, 1.881915807723999, 1.6498427391052246, 1.2190659046173096, 2.0750081539154053, 1.4236538410186768, 2.0774734020233154, 1.2235286235809326, 1.331284761428833, 1.4814698696136475, 1.9554355144500732, 1.3647022247314453, 1.4059748649597168, 1.8348684310913086, 2.0839083194732666, 1.3075320720672607, 1.5172319412231445, 1.4004111289978027, 0.9601235389709473, 1.1785986423492432, 1.1680457592010498, 1.3476340770721436, 1.7032287120819092, 1.6316757202148438, 1.1422970294952393, 1.120163917541504, 1.2712221145629883, 1.9238815307617188, 1.4245569705963135, 1.6002495288848877, 1.086446762084961, 1.3208768367767334, 1.8960797786712646, 0.9763815402984619, 0.8193066120147705, 1.6820635795593262, 0.9266431331634521, 1.1184895038604736, 1.471853494644165, 1.2302830219268799, 1.5936942100524902, 1.5793495178222656, 1.7230610847473145, 1.891308307647705, 1.5388970375061035, 1.2969908714294434, 2.662820816040039, 1.8156163692474365, 1.375307321548462]</t>
+          <t>[1.6524930000305176, 2.199521780014038, 2.8658416271209717, 1.7917065620422363, 2.9812633991241455, 3.2997806072235107, 2.6103627681732178, 3.4832680225372314, 2.9032251834869385, 3.853214740753174, 2.921394109725952, 2.394376277923584, 2.6744234561920166, 3.1321184635162354, 2.9645164012908936, 2.2185444831848145, 2.926912784576416, 2.098271369934082, 2.659670829772949, 3.254669666290283, 2.3583922386169434, 1.7382214069366455, 3.603426694869995, 2.065927267074585, 1.7196476459503174, 3.990447521209717, 2.199709415435791, 1.5526578426361084, 3.0978405475616455, 3.2043635845184326, 2.5193557739257812, 2.6896145343780518, 1.6394689083099365, 3.272372007369995, 4.183151006698608, 3.6383378505706787, 2.5420620441436768, 2.298724412918091, 2.885430097579956, 3.3938021659851074, 3.4448487758636475, 2.230393409729004, 3.666630983352661, 3.9011969566345215, 3.794978618621826, 2.6265437602996826, 2.0000815391540527, 2.69769024848938, 2.6324303150177, 2.768540382385254, 2.0673177242279053, 2.755174398422241, 2.8484928607940674, 2.9811224937438965, 2.0287532806396484, 3.648615837097168, 2.4897000789642334, 3.3232741355895996, 1.8228743076324463, 2.2717669010162354, 2.636730670928955, 3.3327693939208984, 2.4716436862945557, 2.52044677734375, 3.294015884399414, 3.5950582027435303, 2.2720096111297607, 2.658447742462158, 2.4236433506011963, 1.7477045059204102, 2.041663885116577, 2.150143623352051, 2.2343924045562744, 3.1402368545532227, 2.835177183151245, 2.017134666442871, 1.9629695415496826, 2.2353179454803467, 3.342400550842285, 2.47548770904541, 2.8972315788269043, 1.9301927089691162, 2.321305990219116, 3.3476555347442627, 1.7569479942321777, 1.440659523010254, 2.970545768737793, 1.6504497528076172, 2.0147335529327393, 2.5190770626068115, 2.082568645477295, 2.773284673690796, 2.603457450866699, 2.953969717025757, 3.207303762435913, 2.6018056869506836, 2.1690220832824707, 4.577849388122559, 3.1045870780944824, 2.333268642425537]</t>
         </is>
       </c>
       <c r="AF5" t="n">
@@ -1213,20 +1145,20 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1355.15</v>
+        <v>1399.3</v>
       </c>
       <c r="O6" t="n">
         <v>372.36</v>
       </c>
       <c r="P6" t="n">
-        <v>56.69332313537598</v>
+        <v>60.94874846935272</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.86565089225769</v>
+        <v>8.689981698989868</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'x_0_1': [3397, 1412, 3996, 1416, 3997, 1415, 1414, 1413], 'x_2_1': [947, 3379, 3382, 3381, 3380], 's_0_2_1': [1427], 'x_4_1': [3080, 1428, 2991, 1230, 3442, 3637, 1397, 1396, 1398, 3201, 1110, 1231], 's_0_4_1': [1442], 'x_5_1': [1189, 1190, 4099, 4103, 4102, 4101, 4100], 's_0_5_1': [3862, 3861], 'x_7_1': [4118, 4117, 4220, 4221, 1220, 1221, 4145, 1506, 4147, 4146], 's_0_7_1': [1491], 'x_8_1': [1625, 1626, 4056, 4057, 4058], 's_0_8_1': [4072], 'x_12_1': [3547, 3260, 1566, 1051, 3893, 1565, 3215, 3216, 3217, 1564, 1563, 1562, 1561], 's_0_12_1': [3772], 'x_13_1': [978, 3695, 1252, 1251, 1250, 1248, 1384, 3697, 3696, 1249], 's_0_13_1': [3847], 'x_16_1': [4133, 3333, 3334, 3787, 3788, 1611, 1610, 3335, 3336, 3337, 3338, 1607, 1608, 1609], 's_0_16_1': [3398], 'x_18_1': [1068, 3545, 1188, 3607, 1292, 1293, 1203, 3606], 's_0_18_1': [3532], 'x_23_1': [801, 1354, 1355, 1356, 4237, 4234, 4235, 4236], 's_0_23_1': [4207], 'x_32_1': [1476, 951, 4024, 4025, 4027, 4028, 4026], 's_0_32_1': [1461], 'x_33_1': [3950, 3753, 3921, 3920, 1175, 1174, 3754, 3755], 's_0_33_1': [3877, 1310], 'x_36_1': [3649, 1173, 1459, 3652, 3650, 3651], 's_0_36_1': [3727], 't_0': [1385], 'x_0_2': [3318, 3892, 3891, 3890, 631, 632, 633, 634, 846, 845, 3889, 3888], 's_2_12_1': [1336], 'x_14_1': [1103, 4445, 4444, 908, 3694, 872, 873, 4384, 877, 876, 874, 875], 's_2_14_1': [887], 's_2_18_1': [3276, 1186], 'x_34_1': [3364, 3367, 3365, 3366], 's_2_34_1': [1531], 't_2': [976], 'x_2_2': [453, 452, 451, 3289, 3288, 3287], 's_4_12_1': [3202], 'x_17_1': [3247, 3743, 1623, 3503, 3502, 3184, 3185, 3186, 1624, 1381, 1382], 's_4_17_1': [3322], 's_4_18_1': [3441], 'x_21_1': [1458, 3577, 1116, 4085, 4086, 1548, 1549, 1550, 4087], 's_4_21_1': [3638], 'x_25_1': [3094, 3863, 1261, 1640, 1639, 1638, 1291, 1637, 1636, 3095, 3096, 3097, 3098], 's_4_25_1': [1320], 'x_26_1': [1297, 3936, 1699, 3818, 3817, 1399, 4222, 1401, 1400], 's_4_26_1': [1429], 'x_28_1': [3517, 3231, 1366, 3427, 3908, 3668, 1595, 1594, 3261, 3262, 1501, 1502, 3518, 1593], 's_4_28_1': [1306], 'x_29_1': [1201, 1352, 3305, 3306, 1353, 1262, 3396], 's_4_29_1': [3307], 'x_31_1': [3667, 4188, 4189, 4190, 1444, 1445, 1446, 1447, 4191, 4192], 's_4_31_1': [1383], 's_4_34_1': [1472], 't_4': [2990], 'x_4_2': [945, 197, 3079, 3078, 3093, 3360, 3362, 646, 3361, 645], 'x_6_1': [4293, 4294, 4295, 4310, 1162, 1161, 1160, 1159, 1158, 1157, 3488, 3487, 1113, 3486], 's_5_6_1': [3876], 'x_10_1': [1056, 3425, 1055, 1052, 1053, 1054], 's_5_10_1': [1071], 'x_20_1': [697, 1744, 1745, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 1747, 1746], 's_5_20_1': [4088], 's_5_21_1': [1281], 's_5_23_1': [1191], 'x_24_1': [4012, 4013, 992, 1657, 1576, 1577, 3455, 1656, 1655, 1654, 1653, 3456, 3457, 3458], 's_5_24_1': [1671], 's_5_26_1': [1370], 's_5_33_1': [3786], 'x_35_1': [3964, 3472, 1473, 3965, 1327, 1325, 3966, 1326, 1474, 1475, 3967], 's_5_35_1': [980], 't_5': [4084], 'x_5_2': [561, 891, 4006, 4069, 440, 4067, 4068], 'x_1_1': [1431, 4179, 727, 4178, 4177, 4173, 4174, 4176, 4175], 's_1_7_1': [1146], 'x_3_1': [952, 637, 4339, 4338], 's_3_7_1': [1132, 4340], 's_7_8_1': [4208, 1627], 's_7_10_1': [4115], 's_7_13_1': [1219], 'x_15_1': [1222, 487, 4357, 4356, 4355, 4351, 4353, 4352, 4354], 's_7_15_1': [1507], 's_7_20_1': [4239, 4238], 's_7_26_1': [4223], 'x_27_1': [3664, 3665, 1266, 1265, 1264, 3666], 's_7_27_1': [4011], 's_7_31_1': [1492, 4267], 's_7_32_1': [1296], 'x_38_1': [1516, 1517, 1372, 4129, 4130, 1371, 1518, 1519, 1520, 1521, 4132, 4131], 's_7_38_1': [1026], 't_7': [1041, 1040], 'x_7_2': [590, 530, 3935, 3934, 3933, 245, 3930, 3931, 3932], 's_8_12_1': [3968], 's_8_25_1': [3923], 's_8_28_1': [3953], 's_8_32_1': [1505], 's_8_35_1': [3848], 't_8': [4071], 'x_8_2': [4070, 4055, 4053, 605, 4054, 3257, 601, 602, 603, 604], 'x_9_1': [1490, 3982, 4276, 4277, 4278, 4279, 4280, 3981, 1340, 4283, 4282, 4281, 1341], 's_9_12_1': [3952], 's_12_17_1': [3187], 's_12_21_1': [3998], 's_12_24_1': [3323], 's_12_28_1': [1426], 's_12_34_1': [1141], 's_12_35_1': [3473], 'x_37_1': [517, 4262, 4263, 4264, 1011, 3290, 1097, 1010, 1009, 1008, 3620, 1098], 's_12_37_1': [1096], 's_12_38_1': [1504], 't_12': [3214], 'x_12_2': [871, 827, 392, 393, 3541, 3542, 3259, 811, 812, 3543], 's_9_13_1': [3832], 'x_11_1': [606, 1312, 3983, 1535, 1536, 4253, 4252, 4247, 4248, 4249, 4250, 4251], 's_11_13_1': [4341], 's_13_14_1': [3604], 's_13_16_1': [1247], 's_13_18_1': [3531], 'x_19_1': [3621, 571, 1170, 3801, 3123, 3124, 3125, 3168, 3126, 1276, 1277, 1278, 3771, 1279], 's_13_19_1': [3681], 's_13_21_1': [3698], 's_13_27_1': [3846], 's_13_29_1': [3741], 'x_30_1': [3811, 3812, 3813, 3814, 3815, 1322, 1323, 1324, 3816], 's_13_30_1': [979], 's_13_35_1': [4311], 'x_39_1': [3680, 3800, 4265, 1102, 1101, 1099, 1100], 's_13_39_1': [1129], 't_13': [949], 'x_13_2': [3617, 3634, 3633, 680, 679, 3708, 3630, 3631, 3632, 618], 's_1_16_1': [1701], 's_6_16_1': [1592], 's_10_16_1': [3350], 's_11_16_1': [4163], 's_16_18_1': [1307], 's_16_20_1': [1686, 4224], 'x_22_1': [3156, 3485, 3155, 1024, 1023, 1021, 1022], 's_16_22_1': [1067], 's_16_32_1': [4043], 's_16_36_1': [3653, 1669], 't_16': [737], 'x_16_2': [3528, 3468, 725, 722, 724, 723], 's_6_18_1': [1187, 3501], 's_18_21_1': [1443], 's_18_24_1': [3608, 1668], 's_18_27_1': [1218], 's_18_30_1': [3591], 's_18_35_1': [3471], 's_18_36_1': [3711, 1143], 's_18_39_1': [3740, 1084], 't_18': [3575], 'x_18_2': [3526, 573, 3590, 3589, 3588, 212, 213, 3585, 3586, 3587], 's_1_23_1': [1087], 's_14_23_1': [862], 's_19_23_1': [3802], 's_23_33_1': [1369], 's_23_37_1': [786], 's_23_39_1': [1057], 't_23': [816], 'x_23_2': [3766, 394, 396, 395, 4113, 4112, 4111], 's_3_32_1': [756, 757], 's_6_32_1': [1145], 's_14_32_1': [4144], 's_32_33_1': [1235], 's_32_37_1': [4040], 's_32_38_1': [4114], 't_32': [4039], 'x_32_2': [545, 860, 3918, 3915, 3916, 3917], 's_6_33_1': [1144], 's_9_33_1': [1295], 's_22_33_1': [3769], 's_26_33_1': [3906], 's_33_36_1': [1114], 't_33': [3768], 'x_33_2': [3947, 3661, 560, 559, 739, 3663, 3662], 's_10_36_1': [3635], 's_14_36_1': [888], 's_21_36_1': [1489, 3683], 's_29_36_1': [3682], 's_35_36_1': [1460], 's_36_38_1': [3757], 's_36_39_1': [3725], 't_36': [813], 'x_36_2': [3648, 799, 796, 797, 3709, 3603, 798], 's_0_2_2': [676], 's_0_4_2': [3348], 's_0_5_2': [4204], 's_0_7_2': [1130], 's_0_8_2': [3557], 's_0_12_2': [647], 's_0_13_2': [648], 's_0_16_2': [3303], 's_0_18_2': [3513], 's_0_23_2': [4128], 's_0_32_2': [3994], 's_0_33_2': [3678], 's_0_36_2': [3319], 's_2_12_2': [3391], 'x_14_2': [4172, 457, 456, 364, 3829, 3828, 3827, 455, 3751, 454], 's_2_14_2': [3736], 's_2_18_2': [3571], 'x_34_2': [3274, 3363, 856, 857], 's_2_34_2': [3273], 's_4_12_2': [407], 'x_17_2': [3195, 3199, 3198, 3196, 3197], 's_4_17_2': [630], 's_4_18_2': [3285], 'x_21_2': [4160, 4159, 4156, 4157, 4158, 771, 766, 767, 768, 769, 770], 's_4_21_2': [3108], 'x_25_2': [825, 3033, 3034, 3032, 527, 526, 525], 's_4_25_2': [765], 'x_26_2': [4327, 4326, 4325, 4324, 4323, 4322, 4321, 277, 276, 275, 271, 274, 273, 272], 's_4_26_2': [3375], 'x_28_2': [181, 3230, 3225, 3226, 3227, 3229, 3228], 's_4_28_2': [616], 'x_29_2': [661, 170, 169, 168, 167, 961, 3244, 3243, 3242, 3241, 3240, 166, 3270, 136], 's_4_29_2': [3315], 'x_31_2': [651, 183, 531, 4143, 4142, 4141, 4140, 4005, 198, 199, 200, 201], 's_4_31_2': [182], 's_4_34_2': [855], 'x_6_2': [3405, 3963, 151, 152, 153, 154, 4292, 4291, 4290, 157, 156, 155, 3960, 3961, 3962], 's_5_6_2': [350], 'x_10_2': [712, 1007, 3409, 3408, 4038, 711, 710, 709, 707, 708], 's_5_10_2': [591], 'x_20_2': [4382, 4396, 4397, 3467, 502, 501, 496, 497, 498, 499, 500], 's_5_20_2': [4007], 's_5_21_2': [441], 's_5_23_2': [726], 'x_24_2': [435, 305, 304, 303, 933, 3454, 3453, 436, 3452, 302, 3451, 437], 's_5_24_2': [320], 's_5_26_2': [4066], 's_5_33_2': [3946], 'x_35_2': [4020, 186, 782, 815, 783, 4080, 4081, 4082, 784, 785, 231, 4083], 's_5_35_2': [741], 'x_1_2': [217, 3978, 664, 665, 666, 4201, 4202, 621, 4203], 's_1_7_2': [755], 'x_3_2': [4457, 4022, 546, 548, 547], 's_3_7_2': [4021], 's_7_8_2': [800], 's_7_10_2': [4037], 's_7_13_2': [589], 'x_15_2': [4036, 381, 4306, 382], 's_7_15_2': [260], 's_7_20_2': [3992], 's_7_26_2': [3945], 'x_27_2': [470, 3780, 469, 3781, 513, 514, 754, 3783, 3782], 's_7_27_2': [244], 's_7_31_2': [3975], 's_7_32_2': [185], 'x_38_2': [3991, 3976, 335, 3901, 3109, 916, 917, 918, 919, 3902, 3903, 3904, 921, 920], 's_7_38_2': [935], 's_8_12_2': [617], 's_8_25_2': [3407], 's_8_28_2': [586], 's_8_32_2': [861], 's_8_35_2': [830], 'x_9_2': [422, 426, 425, 423, 424], 's_9_12_2': [3406], 's_12_17_2': [841], 's_12_21_2': [3529], 's_12_24_2': [3376], 's_12_28_2': [946], 's_12_34_2': [3154], 's_12_35_2': [3393], 'x_37_2': [3646, 333, 3676, 229, 3750, 4232, 4231, 291, 290, 289], 's_12_37_2': [348], 's_12_38_2': [3169], 's_9_13_2': [438], 'x_11_2': [3482, 408, 412, 411, 409, 3843, 3842, 410], 's_11_13_2': [3616], 's_13_14_2': [694], 's_13_16_2': [663], 's_13_18_2': [843], 'x_19_2': [450, 481, 3720, 3721, 484, 483, 3167, 482], 's_13_19_2': [258], 's_13_21_2': [4008], 's_13_27_2': [3647], 's_13_29_2': [3645], 'x_30_2': [465, 466, 255, 467, 3512, 3510, 257, 319, 318, 256, 3511], 's_13_30_2': [138], 's_13_35_2': [3993], 'x_39_2': [3677, 542, 543, 3798, 3799, 3797, 544], 's_13_39_2': [3722], 's_1_16_2': [3693], 's_6_16_2': [740], 's_10_16_2': [3423], 's_11_16_2': [3858], 's_16_18_2': [3527], 's_16_20_2': [588], 'x_22_2': [511, 3272, 3439, 678, 3436, 557, 3437, 962, 677, 3438], 's_16_22_2': [662], 's_16_32_2': [3948], 's_16_36_2': [3378], 's_6_18_2': [3615], 's_18_21_2': [753], 's_18_24_2': [363], 's_18_27_2': [3572], 's_18_30_2': [3316], 's_18_35_2': [3573], 's_18_36_2': [3602], 's_18_39_2': [574], 's_1_23_2': [681], 's_14_23_2': [471], 's_19_23_2': [3857], 's_23_33_2': [3707], 's_23_37_2': [3765], 's_23_39_2': [3692], 's_3_32_2': [515], 's_6_32_2': [575], 's_14_32_2': [829], 's_32_33_2': [3977], 's_32_37_2': [259], 's_32_38_2': [485], 's_6_33_2': [3660], 's_9_33_2': [3887], 's_22_33_2': [558], 's_26_33_2': [288], 's_33_36_2': [693], 's_10_36_2': [3558], 's_14_36_2': [844], 's_21_36_2': [3514], 's_29_36_2': [781], 's_35_36_2': [3618], 's_36_38_2': [3874], 's_36_39_2': [859], 's_3_14_1': [4385, 982], 's_14_20_1': [773], 's_14_37_1': [3739], 's_14_39_1': [1039, 3724], 's_11_14_1': [847], 's_14_15_1': [4369, 938], 's_14_27_1': [3544, 1038], 's_14_35_1': [890], 't_14': [889], 's_10_34_1': [1112], 's_22_34_1': [1037], 's_24_34_1': [1202], 's_28_34_1': [1351], 't_34': [932], 's_3_14_2': [4427], 's_14_20_2': [472], 's_14_37_2': [3691], 's_14_39_2': [649], 's_11_14_2': [529], 's_14_15_2': [4126], 's_14_27_2': [379], 's_14_35_2': [4096], 's_10_34_2': [902], 's_22_34_2': [842], 's_24_34_2': [3469], 's_28_34_2': [3213], 's_17_20_1': [3758], 's_17_38_1': [3713], 's_17_22_1': [960], 's_17_24_1': [3504], 's_17_25_1': [1350], 's_17_29_1': [1036], 's_17_30_1': [3411], 't_17': [3200], 's_1_21_1': [1386], 's_6_21_1': [3995], 's_11_21_1': [1551], 's_21_27_1': [4041], 's_21_28_1': [3623, 1578], 's_21_31_1': [1236], 's_21_35_1': [1115], 's_21_38_1': [3922], 't_21': [1086], 's_25_38_1': [1515], 's_11_25_1': [1534], 's_19_25_1': [840], 's_22_25_1': [1140], 's_25_28_1': [3773], 's_25_29_1': [3171], 't_25': [1035], 's_26_38_1': [4162], 's_24_26_1': [3894], 's_26_27_1': [3726], 's_26_28_1': [3803], 's_26_35_1': [1280], 't_26': [1462], 's_6_28_1': [1547], 's_20_28_1': [3938], 's_28_38_1': [3277], 's_19_28_1': [1171], 's_24_28_1': [3563], 's_28_29_1': [1367], 's_28_30_1': [1321], 't_28': [1216], 's_6_29_1': [1263], 's_29_31_1': [1368], 's_29_37_1': [1082], 's_22_29_1': [1246], 's_24_29_1': [991], 's_29_35_1': [3622], 't_29': [3320], 's_1_31_1': [696], 's_3_31_1': [772], 's_10_31_1': [1282, 4206, 4205], 's_30_31_1': [1338], 't_31': [4187], 's_17_20_2': [3181], 's_17_38_2': [810], 's_17_22_2': [556], 's_17_24_2': [420], 's_17_25_2': [615], 's_17_29_2': [226], 's_17_30_2': [3180], 's_1_21_2': [516], 's_6_21_2': [4155], 's_11_21_2': [3844], 's_21_27_2': [3738], 's_21_28_2': [751], 's_21_31_2': [321], 's_21_35_2': [306], 's_21_38_2': [3859], 's_25_38_2': [915], 's_11_25_2': [512], 's_19_25_2': [3332], 's_22_25_2': [3302], 's_25_28_2': [3212], 's_25_29_2': [3182], 's_26_38_2': [3886], 's_24_26_2': [3346], 's_26_27_2': [3796], 's_26_28_2': [286], 's_26_35_2': [4125], 's_6_28_2': [3210], 's_20_28_2': [3211], 's_28_38_2': [931], 's_19_28_2': [406], 's_24_28_2': [421], 's_28_29_2': [736], 's_28_30_2': [3105], 's_6_29_2': [3885], 's_29_31_2': [3600], 's_29_37_2': [3795], 's_22_29_2': [3435], 's_24_29_2': [3555], 's_29_35_2': [3990], 's_1_31_2': [246], 's_3_31_2': [4097], 's_10_31_2': [576], 's_30_31_2': [3525], 's_1_6_1': [1117], 's_6_10_1': [4010], 's_6_19_1': [3516], 's_6_24_1': [1532], 's_6_35_1': [3980], 't_6': [4309, 4307, 4308], 's_10_22_1': [3860], 's_10_24_1': [3470], 's_10_35_1': [1070], 't_10': [3500], 's_1_20_1': [4194, 4193], 's_3_20_1': [652], 's_20_37_1': [1027], 't_20': [4383], 's_9_24_1': [1430], 's_24_38_1': [3353], 's_11_24_1': [4148], 's_22_24_1': [3530], 't_24': [3515], 's_35_37_1': [995], 's_35_38_1': [4417], 's_15_35_1': [1342], 's_27_35_1': [3951], 't_35': [3979], 's_1_6_2': [4320], 's_6_10_2': [682, 4368], 's_6_19_2': [3735], 's_6_24_2': [3390], 's_6_35_2': [4050], 's_10_22_2': [752], 's_10_24_2': [692], 's_10_35_2': [4098], 's_1_20_2': [218], 's_3_20_2': [4367], 's_20_37_2': [322], 's_9_24_2': [3556], 's_24_38_2': [3619], 's_11_24_2': [3466], 's_22_24_2': [332], 's_35_37_2': [232], 's_35_38_2': [4009], 's_15_35_2': [216], 's_27_35_2': [3723], 's_1_3_1': [742], 's_1_9_1': [1477], 's_1_37_1': [981], 's_1_38_1': [1206], 's_1_39_1': [1176], 't_1': [636, 4218], 't_3': [4442], 's_15_37_1': [562, 563], 's_15_38_1': [4372], 't_15': [383], 's_9_27_1': [1267], 's_27_38_1': [4116], 's_19_27_1': [1233, 3636], 's_27_30_1': [1234, 3756], 't_27': [3679], 's_38_39_1': [4266], 't_38': [906, 905], 's_1_3_2': [4127], 's_1_9_2': [4217], 's_1_37_2': [4216], 's_1_38_2': [336], 's_1_39_2': [3767], 's_15_37_2': [4186], 's_15_38_2': [380], 's_9_27_2': [4052], 's_27_38_2': [3784], 's_19_27_2': [349], 's_27_30_2': [528], 's_38_39_2': [964], 't_9': [4261], 's_11_37_1': [667], 's_19_37_1': [3291], 's_30_37_1': [994], 't_37': [532], 's_11_37_2': [4171], 's_19_37_2': [184], 's_30_37_2': [3706], 's_11_39_1': [1072], 't_11': [397], 's_19_39_1': [3770], 's_19_22_1': [1155], 't_19': [3092], 's_30_39_1': [1085], 's_22_30_1': [3830], 't_30': [3826], 's_22_39_1': [3845], 't_39': [934], 's_11_39_2': [619], 's_19_39_2': [3422], 's_19_22_2': [3317], 's_30_39_2': [3497], 's_22_30_2': [3152], 's_22_39_2': [3347], 't_22': [3559]}</t>
+          <t>{'x_0_1': [822, 5178, 4399, 817, 818, 821, 820, 819], 'x_2_1': [5257, 5268, 5269, 5270, 5271, 5272], 's_0_2_1': [717], 'x_4_1': [4939, 835, 836, 5077, 5076, 5075, 5074], 's_0_4_1': [5163], 'x_5_1': [4715, 4711, 4712, 4713, 955, 4714], 's_0_5_1': [4729], 'x_7_1': [1147, 1148, 1149, 1150, 1151, 326, 5041, 5042, 5043, 5044, 5045], 's_0_7_1': [791], 'x_8_1': [5046, 4805, 1210, 1211, 5088, 5089, 5090, 5091], 's_0_8_1': [762], 'x_12_1': [882, 4426, 881, 4427, 4428, 4429, 1002, 5209, 880, 879, 878], 's_0_12_1': [5284], 'x_13_1': [4339, 832, 536, 535, 4622, 520, 519, 518, 4458, 4457], 's_0_13_1': [773], 'x_16_1': [4504, 4562, 4563, 912, 911, 983, 910, 4639, 4564, 909], 's_0_16_1': [4954], 'x_18_1': [3783, 851, 850, 849, 848, 847, 799, 800, 801, 4217, 852, 562, 4262, 4263], 's_0_18_1': [4519], 'x_23_1': [1825, 4794, 4792, 4793, 594, 595, 4791, 4788, 4789, 4790], 's_0_23_1': [834], 'x_32_1': [655, 371, 5030, 5029, 5026, 731, 5028, 656, 5027], 's_0_32_1': [5177], 'x_33_1': [4743, 652, 4580, 4579, 654, 653, 4578], 's_0_33_1': [4398], 'x_36_1': [4294, 4293, 802, 460, 459, 457, 458, 4323, 4322], 's_0_36_1': [862], 't_0': [4384], 'x_0_2': [892, 4279, 4280, 4554, 1748, 1747, 4283, 4282, 4281], 's_2_12_1': [5254], 'x_14_1': [1060, 5103, 4845, 4912, 4911, 5162, 641, 4910, 642, 4846, 4847, 640, 4908, 4909], 's_2_14_1': [5253], 's_2_18_1': [867], 'x_34_1': [1392, 1272, 5240, 5243, 5242, 5241], 's_2_34_1': [1212], 't_2': [5258], 'x_2_2': [5273, 1617, 1616, 1615, 1762, 1763, 1764, 4658, 1614], 's_4_12_1': [942], 'x_17_1': [5197, 4925, 5194, 5196, 1091, 1092, 5195], 's_4_17_1': [1482], 's_4_18_1': [5134], 'x_21_1': [790, 4456, 4848, 701, 700, 4773, 472, 469, 470, 471, 4261, 502, 503, 504, 505, 4772], 's_4_21_1': [5073], 'x_25_1': [5016, 5121, 1240, 1242, 1241], 's_4_25_1': [1256], 'x_26_1': [608, 4594, 896, 895, 4670, 4593, 4669, 894], 's_4_26_1': [5104], 'x_28_1': [4863, 4864, 1046, 1045, 4865, 4866, 4881, 4882, 5181, 1361, 1360], 's_4_28_1': [1376], 'x_29_1': [4924, 1137, 4636, 864, 865, 4894, 4895, 4637, 4777, 4776, 4638, 1135, 1136], 's_4_29_1': [1122], 'x_31_1': [4967, 4968, 4972, 4971, 4970, 761, 4969], 's_4_31_1': [1406], 's_4_34_1': [1497], 't_4': [1436], 'x_4_2': [3907, 1519, 3893, 1595, 3938, 1715, 1716, 5001, 1717, 1718, 1719, 1720, 5003, 1421, 5002], 'x_6_1': [369, 4819, 4818, 370, 4817, 412, 413, 414, 415, 4816], 's_5_6_1': [4726], 'x_10_1': [4730, 1032, 1027, 1028, 1031, 1029, 1030], 's_5_10_1': [4804], 'x_20_1': [401, 1102, 1103, 1104, 1105, 1106, 5011, 5012, 5013, 5014, 5015], 's_5_20_1': [4775], 's_5_21_1': [4727], 's_5_23_1': [609], 'x_24_1': [4820, 4413, 4414, 4415, 4595, 1073, 1077, 1076, 1075, 1074], 's_5_24_1': [1059], 's_5_26_1': [954], 's_5_33_1': [714], 'x_35_1': [4700, 4699, 4698, 665, 666, 667, 671, 670, 669, 4486, 4487, 4485, 668], 's_5_35_1': [969], 't_5': [1120], 'x_5_2': [4310, 4884, 4883, 1540, 4852, 4851, 1085, 1086, 1087, 1088, 1089, 4850, 1090], 'x_1_1': [4082, 4787, 4382, 551, 550, 4067, 546, 547, 549, 4397, 548], 's_1_7_1': [566], 'x_3_1': [440, 441, 446, 445, 444, 443, 442], 's_3_7_1': [5071], 's_7_8_1': [4926], 's_7_10_1': [4685], 's_7_13_1': [521], 'x_15_1': [218, 311, 310, 309, 307, 4440, 308], 's_7_15_1': [4951], 's_7_20_1': [1001], 's_7_26_1': [5059], 'x_27_1': [581, 580, 579, 578, 4277, 574, 575, 576, 577], 's_7_27_1': [596], 's_7_31_1': [1121], 's_7_32_1': [341], 'x_38_1': [5120, 1016, 985, 337, 4246, 4247, 4248, 4249, 922, 1015, 923, 4835, 4834, 925, 924], 's_7_38_1': [986], 't_7': [4295], 'x_7_2': [1025, 4416, 1174, 4024, 4027, 4445, 1177, 1176, 4025, 4026, 1175], 's_8_12_1': [957], 's_8_25_1': [1196], 's_8_28_1': [5092], 's_8_32_1': [971], 's_8_35_1': [686], 't_8': [1194], 'x_8_2': [4553, 1583, 1179, 4686, 4477, 4476, 1254, 1253], 'x_9_1': [3923, 3922, 3921, 3920, 3919, 3918, 725, 4383, 607, 606, 605, 604, 3843], 's_9_12_1': [728], 's_12_17_1': [987], 's_12_21_1': [368], 's_12_24_1': [5210], 's_12_28_1': [4999], 's_12_34_1': [5239], 's_12_35_1': [593], 'x_37_1': [355, 5010, 221, 4936, 325, 324, 321, 322, 323, 4652, 4651, 384, 4546], 's_12_37_1': [383], 's_12_38_1': [4459], 't_12': [4474], 'x_12_2': [4628, 1688, 4489, 1836, 1837, 1838, 1853, 4490, 4491, 4492, 4494, 4493], 's_9_13_1': [4442], 'x_11_1': [747, 5152, 5151, 5150, 5149, 5102, 5101, 702, 5148, 5147, 5146, 296], 's_11_13_1': [537], 's_13_14_1': [4997], 's_13_16_1': [638], 's_13_18_1': [4308], 'x_19_1': [729, 4531, 4532, 4533, 4534, 4821, 1270, 1269, 4536, 4535], 's_13_19_1': [564], 's_13_21_1': [4877], 's_13_27_1': [4472], 's_13_29_1': [4623], 'x_30_1': [4763, 4762, 4761, 941, 940, 4760, 684, 4758, 775, 4759], 's_13_30_1': [683], 's_13_35_1': [533], 'x_39_1': [491, 4683, 490, 486, 4682, 487, 488, 489], 's_13_39_1': [5087], 't_13': [4324], 'x_13_2': [4465, 4464, 4434, 966, 967, 4430, 4431, 1808, 4433, 4432], 's_1_16_1': [4577], 's_6_16_1': [4561], 's_10_16_1': [5179], 's_11_16_1': [927], 's_16_18_1': [4774], 's_16_20_1': [4565], 'x_22_1': [1317, 5122, 1377, 5227, 759, 760, 4744, 4745, 4746, 1467, 1466, 1465, 4747], 's_16_22_1': [774], 's_16_32_1': [926], 's_16_36_1': [982], 't_16': [938], 'x_16_2': [4044, 953, 952, 951, 4040, 4042, 4043, 4041], 's_6_18_1': [4202], 's_18_21_1': [4998], 's_18_24_1': [863], 's_18_27_1': [4278], 's_18_30_1': [4803], 's_18_35_1': [3963], 's_18_36_1': [532], 's_18_39_1': [4187], 't_18': [844, 3753], 'x_18_2': [4372, 3784, 3786, 3787, 3788, 3785, 1684, 4313, 1685, 1686, 1687, 4373], 's_1_23_1': [4832], 's_14_23_1': [1225], 's_19_23_1': [1405], 's_23_33_1': [4802], 's_23_37_1': [4547], 's_23_39_1': [4697], 't_23': [4719], 'x_23_2': [4795, 1956, 1957, 1958, 1840, 1839, 4570], 's_3_32_1': [4906], 's_6_32_1': [416], 's_14_32_1': [4878], 's_32_33_1': [730], 's_32_37_1': [5025], 's_32_38_1': [1061], 't_32': [1181], 'x_32_2': [5136, 4131, 1166, 1165, 1164, 1163, 1235, 1236, 1237, 1238, 4581], 's_6_33_1': [4742], 's_9_33_1': [4307], 's_22_33_1': [4728], 's_26_33_1': [833], 's_33_36_1': [4353], 't_33': [998], 'x_33_2': [1043, 1883, 4505, 4509, 4506, 4508, 4507], 's_10_36_1': [4309], 's_14_36_1': [4831], 's_21_36_1': [4862], 's_29_36_1': [473], 's_35_36_1': [4338], 's_36_38_1': [727], 's_36_39_1': [4367], 't_36': [891, 4204, 757], 'x_36_2': [1310, 1356, 1355, 3951, 3950, 3949, 4084, 1283, 4386, 1009, 1010, 1011, 1012, 4385], 's_0_2_2': [4329], 's_0_4_2': [1733], 's_0_5_2': [1132], 's_0_7_2': [1267, 4236], 's_0_8_2': [4478], 's_0_12_2': [1854], 's_0_13_2': [4419], 's_0_16_2': [4354], 's_0_18_2': [1597], 's_0_23_2': [4555, 1973], 's_0_32_2': [1371], 's_0_33_2': [4539], 's_0_36_2': [1282], 's_2_12_2': [4374], 'x_14_2': [860, 4689, 1734, 4009, 4010, 4011, 4012, 1505, 1506, 4779, 4778, 1510, 1509, 1508, 1507], 's_2_14_2': [1600], 's_2_18_2': [4463], 'x_34_2': [4673, 1632, 1631, 1630, 1627, 1628, 1629], 's_2_34_2': [4853], 's_4_12_2': [4359], 'x_17_2': [1302, 1301, 1297, 4598, 4597, 1298, 1299, 1300], 's_4_17_2': [5107], 's_4_18_2': [4088], 'x_21_2': [3857, 3858, 3859, 1988, 1987, 3860, 3861, 3862, 3864, 3865, 3863, 1985, 1986, 4164, 4165], 's_4_21_2': [1655], 'x_25_2': [4986, 1375, 1779, 4704, 4703, 4701, 1374, 4702], 's_4_25_2': [4764], 'x_26_2': [3937, 1490, 3817, 1209, 1208, 1207, 1206, 3725, 3816, 1204, 1205], 's_4_26_2': [3832], 'x_28_2': [1480, 1760, 3982, 3983, 3984, 1865, 4731, 4732, 4733, 4734, 1869, 1866, 1867, 1868], 's_4_28_2': [3953], 'x_29_2': [4584, 1329, 4356, 4583, 4582, 1325, 1326, 1327, 1328], 's_4_29_2': [1330], 'x_31_2': [3847, 4357, 1451, 1450, 1449, 1460, 1461, 1462, 1463, 1464], 's_4_31_2': [5047], 's_4_34_2': [1646], 'x_6_2': [681, 4171, 4172, 4173, 1703, 4240, 4239, 1702, 1701, 4178, 4177, 4174, 4175, 4176], 's_5_6_2': [4190], 'x_10_2': [4130, 4253, 1146, 4252, 4250, 4251], 's_5_10_2': [4145], 'x_20_2': [875, 876, 4219, 1385, 1386, 4220, 4221, 4222], 's_5_20_2': [1117], 's_5_21_2': [3845], 's_5_23_2': [4869], 'x_24_2': [4194, 4193, 1058, 1057, 4265, 1551, 4266, 1477, 4267], 's_5_24_2': [4400], 's_5_26_2': [1084], 's_5_33_2': [4520], 'x_35_2': [950, 1115, 3932, 3933, 3935, 1313, 3934, 1190, 1191, 1192, 4371], 's_5_35_2': [4460], 'x_1_2': [755, 756, 1221, 4068, 4070, 4069, 1281, 4075, 4074, 4073, 4072, 4071], 's_1_7_2': [830], 'x_3_2': [410, 439, 3877, 3876, 3875, 3872, 3873, 3874], 's_3_7_2': [1430], 's_7_8_2': [1268], 's_7_10_2': [1116], 's_7_13_2': [1133], 'x_15_2': [4231, 4232, 455, 456, 3980, 3979, 3978, 3977], 's_7_15_2': [1040], 's_7_20_2': [3904], 's_7_26_2': [3801], 'x_27_2': [4343, 4341, 1657, 3693, 3694, 3695, 3696, 3697, 1414, 1419, 1418, 4342, 1417, 1416, 1415], 's_7_27_2': [1173], 's_7_31_2': [3846], 's_7_32_2': [4326], 'x_38_2': [1069, 1389, 4612, 4611, 1119, 4369, 4370, 1070, 1071, 1072, 4355, 1118], 's_7_38_2': [3755], 's_8_12_2': [1568], 's_8_25_2': [4671], 's_8_28_2': [1224], 's_8_32_2': [4566], 's_8_35_2': [4461], 'x_9_2': [1823, 1822, 1745, 1746, 4209], 's_9_12_2': [4210], 's_12_17_2': [1343], 's_12_21_2': [4405], 's_12_24_2': [4475], 's_12_28_2': [4045], 's_12_34_2': [1643], 's_12_35_2': [1193], 'x_37_2': [4060, 4095, 4096, 4097, 4098, 4099, 1910, 4104, 4103, 4102, 4101, 4100], 's_12_37_2': [4030], 's_12_38_2': [1373], 's_9_13_2': [4404], 'x_11_2': [5138, 5153, 5154, 1790, 1797, 1796, 1795, 1791, 1792, 1793, 1794], 's_11_13_2': [4479], 's_13_14_2': [4418], 's_13_16_2': [4129], 's_13_18_2': [1732], 'x_19_2': [4641, 1928, 1926, 4538, 4643, 4642, 1927, 1674, 1673, 4390, 4389], 's_13_19_2': [4449], 's_13_21_2': [4435], 's_13_27_2': [1658], 's_13_29_2': [1809], 'x_30_2': [4058, 4462, 1535, 1536, 1539, 1538, 1537], 's_13_30_2': [1552], 's_13_35_2': [1342], 'x_39_2': [1372, 4296, 1252, 1251, 4120, 4111, 4112, 4113, 4119, 4118, 4117, 4114, 4115, 4116], 's_13_39_2': [981], 's_1_16_2': [1656], 's_6_16_2': [4189], 's_10_16_2': [4235], 's_11_16_2': [1775], 's_16_18_2': [4029, 1671], 's_16_20_2': [937], 'x_22_2': [4717, 1613, 4568, 1520, 1521, 1524, 1523, 1522], 's_16_22_2': [4028], 's_16_32_2': [1296], 's_16_36_2': [4055], 's_6_18_2': [4328], 's_18_21_2': [1039], 's_18_24_2': [1567], 's_18_27_2': [949], 's_18_30_2': [3998], 's_18_35_2': [1114], 's_18_36_2': [919, 3754], 's_18_39_2': [4133], 's_1_23_2': [1971], 's_14_23_2': [4780], 's_19_23_2': [4150], 's_23_33_2': [4629], 's_23_37_2': [4105], 's_23_39_2': [4135], 's_3_32_2': [3891], 's_6_32_2': [1401], 's_14_32_2': [1250], 's_32_33_2': [1178], 's_32_37_2': [1311], 's_32_38_2': [4640], 's_6_33_2': [4523], 's_9_33_2': [4524], 's_22_33_2': [4522], 's_26_33_2': [4521], 's_33_36_2': [4446, 1388], 's_10_36_2': [4237], 's_14_36_2': [3948], 's_21_36_2': [935], 's_29_36_2': [1357, 4402], 's_35_36_2': [995], 's_36_38_2': [3890], 's_36_39_2': [1041], 's_3_14_1': [5161], 's_14_20_1': [746], 's_14_37_1': [220], 's_14_39_1': [4907], 's_11_14_1': [5223], 's_14_15_1': [4830], 's_14_27_1': [582], 's_14_35_1': [4982], 't_14': [1525], 's_10_34_1': [1047], 's_22_34_1': [5302], 's_24_34_1': [5225], 's_28_34_1': [1407], 't_34': [5228], 's_3_14_2': [1220], 's_14_20_2': [4162], 's_14_37_2': [1370], 's_14_39_2': [936], 's_11_14_2': [4749], 's_14_15_2': [890], 's_14_27_2': [4087], 's_14_35_2': [3996], 's_10_34_2': [1642], 's_22_34_2': [4403], 's_24_34_2': [4223], 's_28_34_2': [1599], 's_17_20_1': [1107], 's_17_38_1': [5105], 's_17_22_1': [5212], 's_17_24_1': [5000], 's_17_25_1': [1257], 's_17_29_1': [4985], 's_17_30_1': [956], 't_17': [5211], 's_1_21_1': [3992], 's_6_21_1': [4276], 's_11_21_1': [5118], 's_21_27_1': [3827], 's_21_28_1': [715], 's_21_31_1': [4953], 's_21_35_1': [699], 's_21_38_1': [367], 't_21': [3842], 's_25_38_1': [4836], 's_11_25_1': [1331], 's_19_25_1': [1271], 's_22_25_1': [5017], 's_25_28_1': [5031], 's_25_29_1': [4941], 't_25': [1286], 's_26_38_1': [4624], 's_24_26_1': [893], 's_26_27_1': [4502], 's_26_28_1': [4849], 's_26_35_1': [939], 't_26': [4655], 's_6_28_1': [745], 's_20_28_1': [4880], 's_28_38_1': [970], 's_19_28_1': [1255], 's_24_28_1': [4940], 's_28_29_1': [1420], 's_28_30_1': [4984], 't_28': [1495], 's_6_29_1': [4621], 's_29_31_1': [866], 's_29_37_1': [4653], 's_22_29_1': [1285], 's_24_29_1': [5060], 's_29_35_1': [4684], 't_29': [1344], 's_1_31_1': [4952], 's_3_31_1': [430], 's_10_31_1': [4955], 's_30_31_1': [776], 't_31': [4957], 's_17_20_2': [4207], 's_17_38_2': [4613], 's_17_22_2': [4567], 's_17_24_2': [1312], 's_17_25_2': [4656], 's_17_29_2': [4626], 's_17_30_2': [1553], 's_1_21_2': [1821], 's_6_21_2': [1911], 's_11_21_2': [1789], 's_21_27_2': [874], 's_21_28_2': [1820], 's_21_31_2': [1295], 's_21_35_2': [905], 's_21_38_2': [1054], 's_25_38_2': [1314], 's_11_25_2': [4599], 's_19_25_2': [1494], 's_22_25_2': [1479], 's_25_28_2': [1884], 's_25_29_2': [1824], 's_26_38_2': [3740], 's_24_26_2': [1222], 's_26_27_2': [1143], 's_26_28_2': [1550], 's_26_35_2': [4401], 's_6_28_2': [4255], 's_20_28_2': [3967], 's_28_38_2': [1239], 's_19_28_2': [1584], 's_24_28_2': [1761], 's_28_29_2': [4585], 's_28_30_2': [4718], 's_6_29_2': [4191], 's_29_31_2': [4387], 's_29_37_2': [1340], 's_22_29_2': [1598], 's_24_29_2': [1341], 's_29_35_2': [3936], 's_1_31_2': [1446], 's_3_31_2': [1354], 's_10_31_2': [1432], 's_30_31_2': [4807], 's_1_6_1': [398], 's_6_10_1': [1014], 's_6_19_1': [399], 's_6_24_1': [4412], 's_6_35_1': [4471], 't_6': [4186], 's_10_22_1': [999], 's_10_24_1': [5285], 's_10_35_1': [1044], 't_10': [1042], 's_1_20_1': [4937], 's_3_20_1': [431], 's_20_37_1': [4891], 't_20': [4205], 's_9_24_1': [743], 's_24_38_1': [908], 's_11_24_1': [5135], 's_22_24_1': [758], 't_24': [4550], 's_35_37_1': [4470], 's_35_38_1': [682], 's_15_35_1': [233], 's_27_35_1': [4038], 't_35': [3947], 's_1_6_2': [4158], 's_6_10_2': [996], 's_6_19_2': [1972], 's_6_24_2': [1447], 's_6_35_2': [680], 's_10_22_2': [4238], 's_10_24_2': [1582], 's_10_35_2': [1145], 's_1_20_2': [4054], 's_3_20_2': [1400], 's_20_37_2': [4086], 's_9_24_2': [4179], 's_24_38_2': [4340], 's_11_24_2': [1776], 's_22_24_2': [4312], 's_35_37_2': [785], 's_35_38_2': [3965], 's_15_35_2': [590], 's_27_35_2': [4417], 's_1_3_1': [4922], 's_1_9_1': [4127], 's_1_37_1': [4066], 's_1_38_1': [517], 's_1_39_1': [4081], 't_1': [4083], 't_3': [3931], 's_15_37_1': [4455], 's_15_38_1': [4396], 't_15': [217], 's_9_27_1': [3812], 's_27_38_1': [636], 's_19_27_1': [4608], 's_27_30_1': [4667], 't_27': [3708], 's_38_39_1': [4291], 't_38': [877], 's_1_3_2': [770], 's_1_9_2': [4059], 's_1_37_2': [591], 's_1_38_2': [4085], 's_1_39_2': [1851], 's_15_37_2': [620], 's_15_38_2': [1055], 's_9_27_2': [4254], 's_27_38_2': [1434], 's_19_27_2': [1672], 's_27_30_2': [1433], 's_38_39_2': [1056], 't_9': [3908], 's_11_37_1': [295], 's_19_37_1': [353], 's_30_37_1': [624], 't_37': [4080], 's_11_37_2': [3954], 's_19_37_2': [4089], 's_30_37_2': [1476], 's_11_39_1': [492], 't_11': [5137], 's_19_39_1': [744], 's_19_22_1': [4668], 't_19': [4537], 's_30_39_1': [4757], 's_22_30_1': [1359], 't_30': [1554], 's_22_39_1': [789], 't_39': [4126], 's_11_39_2': [4134], 's_19_39_2': [1941], 's_19_22_2': [4569], 's_30_39_2': [1626], 's_22_30_2': [4388], 's_22_39_2': [4132], 't_22': [4748]}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1235,20 +1167,20 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1234</v>
+        <v>1275</v>
       </c>
       <c r="U6" t="n">
         <v>326</v>
       </c>
       <c r="V6" t="n">
-        <v>43.00950050354004</v>
+        <v>61.59278702735901</v>
       </c>
       <c r="W6" t="n">
-        <v>6.315344095230103</v>
+        <v>11.95015382766724</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[1322, 1271, 1324, 1487, 1318, 1560, 1309, 1329, 1447, 1332, 1351, 1362, 1367, 1307, 1341, 1293, 1383, 1375, 1339, 1358, 1407, 1308, 1331, 1364, 1234, 1333, 1278, 1339, 1366, 1442, 1400, 1489, 1335, 1299, 1317, 1325, 1320, 1379, 1279, 1296, 1362, 1390, 1476, 1496, 1374, 1451, 1260, 1470, 1324, 1292, 1376, 1313, 1353, 1312, 1286, 1361, 1378, 1378, 1358, 1270, 1329, 1280, 1508, 1356, 1334, 1255, 1409, 1338, 1389, 1309, 1259, 1413, 1376, 1475, 1348, 1386, 1322, 1411, 1349, 1341, 1390, 1302, 1314, 1334, 1409, 1324, 1358, 1410, 1291, 1386, 1298, 1496, 1301, 1432, 1387, 1373, 1314, 1316, 1318, 1279]</t>
+          <t>[1439, 1318, 1352, 1487, 1353, 1584, 1390, 1417, 1447, 1362, 1415, 1433, 1373, 1351, 1361, 1417, 1383, 1375, 1391, 1430, 1407, 1383, 1328, 1436, 1276, 1370, 1431, 1497, 1377, 1442, 1415, 1590, 1451, 1275, 1454, 1415, 1496, 1379, 1378, 1374, 1406, 1390, 1476, 1587, 1374, 1451, 1334, 1470, 1363, 1353, 1449, 1364, 1421, 1374, 1317, 1456, 1457, 1374, 1358, 1411, 1388, 1298, 1508, 1367, 1391, 1355, 1409, 1415, 1389, 1358, 1342, 1413, 1396, 1475, 1367, 1401, 1322, 1515, 1399, 1365, 1430, 1351, 1379, 1334, 1422, 1355, 1388, 1405, 1387, 1466, 1292, 1496, 1326, 1432, 1415, 1373, 1331, 1328, 1379, 1331]</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1257,7 +1189,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>62.94207293579188</v>
+        <v>60.75376697802534</v>
       </c>
       <c r="AA6" t="n">
         <v>19.49230358346337</v>
@@ -1270,12 +1202,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>[52.80299663543701, 43.32505822181702, 60.35438323020935, 34.657737016677856, 52.9922833442688, 46.54926013946533, 60.19772005081177, 48.297828912734985, 33.7080717086792, 56.83820366859436, 60.67262649536133, 54.43737173080444, 48.1673743724823, 54.70812726020813, 48.357542514801025, 60.832886695861816, 39.87569522857666, 35.77776074409485, 53.392444133758545, 53.13386154174805, 27.389177322387695, 54.644532442092896, 47.51733899116516, 46.06512188911438, 43.00950050354004, 55.32843375205994, 60.66869878768921, 60.639432430267334, 48.73375630378723, 36.50584626197815, 42.83261036872864, 60.37412452697754, 60.209574460983276, 44.32969880104065, 60.411535024642944, 49.390339612960815, 60.95385980606079, 29.113219499588013, 60.92048931121826, 58.84210467338562, 50.598825216293335, 41.30013942718506, 31.575955152511597, 60.840394735336304, 40.574440240859985, 35.31291651725769, 60.143070697784424, 35.43565130233765, 54.21769165992737, 56.9395055770874, 60.122382164001465, 53.92452526092529, 60.73431587219238, 60.08410573005676, 60.104307413101196, 60.11116027832031, 47.77194571495056, 49.5376501083374, 44.62212824821472, 59.13088393211365, 55.616366147994995, 56.56518840789795, 22.136728525161743, 50.821006059646606, 46.90755772590637, 60.5582218170166, 38.3723726272583, 60.41451454162598, 54.32780432701111, 60.74535131454468, 60.55368661880493, 55.32602119445801, 60.72713375091553, 41.790799617767334, 61.08140826225281, 60.61979007720947, 52.79263138771057, 60.45685362815857, 60.828078269958496, 60.5313446521759, 60.284790992736816, 60.424925327301025, 60.157846212387085, 51.584068775177, 60.86751174926758, 60.9241726398468, 61.19264316558838, 60.89242362976074, 60.30180740356445, 61.28608274459839, 60.72713541984558, 57.53754758834839, 60.823981046676636, 40.68437433242798, 60.25286340713501, 56.821457862854004, 60.715800046920776, 60.34033274650574, 60.94059705734253, 60.32818818092346]</t>
+          <t>[61.166043758392334, 61.24717831611633, 60.554505348205566, 61.106239795684814, 61.16023278236389, 61.43481755256653, 60.458613872528076, 60.38728475570679, 60.25181460380554, 60.676124572753906, 60.29113554954529, 60.198487520217896, 61.08727550506592, 60.78122067451477, 60.5335476398468, 62.00304460525513, 61.15826964378357, 61.29863262176514, 60.65449047088623, 60.81851625442505, 51.41265249252319, 60.286235332489014, 60.91776943206787, 60.618046045303345, 61.415847063064575, 61.481181383132935, 61.76565742492676, 62.39867281913757, 61.533469438552856, 61.778132915496826, 60.47263312339783, 62.8546826839447, 60.631579875946045, 61.59278702735901, 61.42069721221924, 62.208399534225464, 61.55859041213989, 51.69312310218811, 61.26715803146362, 60.45263624191284, 61.46380162239075, 61.41657757759094, 56.10520529747009, 61.85755944252014, 60.645911693573, 54.841253995895386, 60.820213317871094, 60.94732975959778, 61.205979347229004, 61.73611283302307, 61.22699570655823, 60.501173973083496, 61.4465115070343, 60.52757024765015, 61.489184856414795, 61.516974687576294, 60.21872067451477, 60.348666191101074, 61.912609577178955, 60.78832387924194, 60.827149391174316, 60.99743700027466, 39.01783990859985, 60.950167179107666, 61.68505072593689, 60.90237474441528, 60.804229736328125, 61.40556621551514, 61.4704155921936, 60.230422019958496, 60.428385496139526, 60.834646701812744, 60.95633339881897, 55.996960401535034, 60.32283091545105, 61.08470129966736, 60.21394658088684, 60.96011400222778, 61.51716160774231, 60.45579195022583, 60.95257377624512, 60.92589712142944, 60.805885314941406, 61.41013860702515, 60.91200089454651, 60.8132209777832, 61.77865409851074, 62.00647807121277, 60.53791642189026, 60.55166935920715, 60.58043026924133, 61.19533610343933, 60.97124433517456, 54.02897095680237, 61.708215951919556, 60.81526827812195, 60.85098671913147, 61.26357316970825, 61.293113708496094, 61.29571008682251]</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>[5.619284391403198, 6.0611817836761475, 7.055470705032349, 3.063899278640747, 4.088357210159302, 5.763589382171631, 3.155364751815796, 3.2361984252929688, 7.197899341583252, 4.287436246871948, 4.14157509803772, 5.204744577407837, 4.242116212844849, 8.01780891418457, 7.229335069656372, 3.652583122253418, 3.5920612812042236, 3.72877836227417, 3.884174108505249, 8.378049373626709, 6.357822895050049, 4.2399468421936035, 6.4848058223724365, 12.887712955474854, 2.8994455337524414, 7.194146633148193, 6.188522100448608, 9.151408672332764, 5.01585578918457, 5.286083698272705, 6.312145709991455, 2.894326686859131, 5.810079097747803, 6.395838022232056, 5.843019485473633, 4.183868646621704, 3.1269822120666504, 4.917800426483154, 3.2189278602600098, 2.7318286895751953, 3.0191526412963867, 4.3655126094818115, 5.14588189125061, 3.7678873538970947, 3.9671826362609863, 3.8313381671905518, 4.172273874282837, 3.7933170795440674, 3.733058214187622, 4.833556413650513, 5.671273469924927, 3.3231120109558105, 3.7957987785339355, 6.90955376625061, 3.1097726821899414, 4.064202785491943, 6.05411696434021, 4.9931724071502686, 4.061383962631226, 5.895705699920654, 8.370476722717285, 3.570465564727783, 4.85634446144104, 6.4031081199646, 4.487999200820923, 7.522570610046387, 3.4689559936523438, 6.630483388900757, 5.324398040771484, 4.85236382484436, 5.738597393035889, 6.014143466949463, 7.134767532348633, 3.6124870777130127, 3.544651985168457, 7.043633222579956, 4.871556758880615, 6.005510091781616, 5.509904384613037, 4.3246400356292725, 5.469545125961304, 4.516993284225464, 6.221999645233154, 5.09320592880249, 7.140790224075317, 4.3155951499938965, 3.8507556915283203, 4.690692901611328, 6.296046018600464, 4.859745025634766, 3.5405900478363037, 5.033208131790161, 5.525748252868652, 4.038769721984863, 4.975506782531738, 4.075652599334717, 6.3153440952301025, 6.994506120681763, 3.415846824645996, 3.891977310180664]</t>
+          <t>[9.862138032913208, 10.404047966003418, 12.418293714523315, 5.3200507164001465, 7.163312911987305, 9.91967487335205, 5.344591379165649, 5.5101706981658936, 12.05374264717102, 7.742261648178101, 7.345803260803223, 9.49459981918335, 7.476682901382446, 14.204067945480347, 12.995320796966553, 6.413195371627808, 6.43289589881897, 6.614289999008179, 6.811608791351318, 14.561368942260742, 11.660942792892456, 7.402338743209839, 11.606704950332642, 23.326966047286987, 5.109501123428345, 12.819337129592896, 10.934584379196167, 16.407395601272583, 8.762187957763672, 9.16971206665039, 11.084341049194336, 5.08698034286499, 10.233867168426514, 11.632488489151001, 10.37582778930664, 7.43364143371582, 5.624662399291992, 8.617775440216064, 5.661216974258423, 4.8049986362457275, 5.373210668563843, 7.863081693649292, 9.14833688735962, 6.8799192905426025, 7.097084999084473, 6.896846294403076, 8.129231214523315, 7.335851430892944, 6.970014333724976, 9.464865446090698, 11.144457578659058, 6.385906219482422, 7.235201835632324, 13.431572675704956, 6.040232419967651, 7.925437927246094, 11.127512454986572, 9.887767791748047, 7.874248743057251, 11.602297067642212, 16.075138568878174, 7.023238182067871, 6.5548155307769775, 10.115113496780396, 7.07323956489563, 11.145484209060669, 5.566973686218262, 11.453722953796387, 8.987574100494385, 8.264237642288208, 9.616703033447266, 10.447945356369019, 11.957170963287354, 6.280551433563232, 5.962258815765381, 11.877707481384277, 8.194067478179932, 10.042955160140991, 9.143837928771973, 7.251003265380859, 9.222725629806519, 8.609052419662476, 12.143109798431396, 9.862605810165405, 13.637508630752563, 7.3691565990448, 6.99413800239563, 7.867952585220337, 11.202471017837524, 9.22817587852478, 6.636355638504028, 9.50321078300476, 10.613543272018433, 7.5877845287323, 9.319886207580566, 7.78751015663147, 11.950153827667236, 13.423094511032104, 6.372263669967651, 7.320961952209473]</t>
         </is>
       </c>
       <c r="AF6" t="n">
@@ -1350,20 +1282,20 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2206.02</v>
+        <v>2313.97</v>
       </c>
       <c r="O7" t="n">
         <v>612.6799999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>60.70986151695251</v>
+        <v>61.51893413066864</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.82885372638702</v>
+        <v>19.90655064582825</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'x_0_1': [1315, 1314, 4641, 1764, 4646, 4645, 1644, 4642, 4644, 4643], 'x_7_1': [1460, 1461, 1462, 4538, 1553, 4477, 1463], 's_0_7_1': [1703], 'x_17_1': [3917, 3916, 1507, 1508, 4537, 4536, 4535, 4534, 4533, 4532, 395, 396, 397, 398, 4486, 473], 's_0_17_1': [1464], 'x_21_1': [4540, 4192, 1477, 4191, 4253, 4257, 4256, 1944, 1943, 1942, 4255, 4254], 's_0_21_1': [2063], 'x_23_1': [1645, 4818, 3903, 860, 861, 862, 4354, 908, 909, 910, 4819, 4820, 4821, 4822, 4823, 4824, 4615, 1869, 1868], 's_0_23_1': [1989], 'x_25_1': [3603, 1824, 4599, 663, 664, 665, 666, 667, 668, 4598, 4597, 1343, 4521, 4520, 4519, 4518], 's_0_25_1': [4704], 'x_27_1': [4081, 4343, 1582, 1583, 1584, 4748, 797, 798, 799, 4747, 4746, 4745, 4744, 804, 803, 802, 801, 800, 4083, 4082], 's_0_27_1': [4703], 'x_30_1': [1914, 4801, 4802, 4803, 4804, 4805, 4809, 4808, 4807, 4806], 's_0_30_1': [1765], 'x_34_1': [3753, 3768, 1898, 4629, 4628, 4627, 4626, 4625, 4624, 4623, 699, 698, 784, 785, 4098, 696, 697], 's_0_34_1': [1629], 'x_41_1': [1674, 4688, 4687, 3993, 4686, 680, 681, 682, 683, 684, 4683, 4684, 4685], 's_0_41_1': [1284], 'x_47_1': [1328, 1327, 1297, 1087, 4340, 4341], 's_0_47_1': [4612], 't_0': [2139], 'x_0_2': [4271, 2329, 4631, 2258, 2330, 2331, 2257, 2256, 2271, 4152], 'x_9_1': [1128, 3455, 3456, 3457, 3454, 1443, 1444, 4702, 1450, 1449, 1448, 1447, 4701, 1446, 1224, 1445], 's_7_9_1': [4117], 'x_13_1': [3787, 1354, 1223, 1222, 1221, 827, 828, 829, 3889, 3890, 1220, 3892, 3891], 's_7_13_1': [3847], 'x_14_1': [3520, 3519, 3518, 3842, 3817, 1384, 1383, 3517, 3516, 4008, 4007, 500, 3515, 3514, 3513, 3512, 498, 499], 's_7_14_1': [3832], 'x_15_1': [652, 1358, 1418, 4293, 712, 4493, 4492, 4491, 577, 578, 4398, 4399, 4400, 4490, 1088], 's_7_15_1': [1538], 's_7_25_1': [1688], 'x_29_1': [3815, 1069, 1074, 4447, 4446, 4445, 1073, 4326, 1070, 1071, 4325, 1072], 's_7_29_1': [1568], 'x_36_1': [4730, 4387, 4720, 4719, 4718, 4715, 1298, 1299, 1300, 4717, 4716], 's_7_36_1': [1554], 't_7': [1523], 'x_7_2': [4466, 4568, 4569, 4570, 2180, 4571, 2181, 2182, 2183, 2184], 'x_5_1': [1336, 3291, 3828, 1127, 3290, 3289, 3288, 3902, 634, 633, 632, 631], 's_5_17_1': [3901], 's_9_17_1': [1494], 'x_12_1': [1598, 1239, 1238, 4433, 4432, 4431, 1147, 3783, 3784, 3785, 1144, 1145, 1146], 's_12_17_1': [1388], 's_14_17_1': [424], 's_15_17_1': [1193], 'x_18_1': [1551, 1296, 3692, 559, 560, 561, 819, 818, 816, 1401, 817, 4132, 4131, 4130, 4129, 4128, 4127], 's_17_18_1': [3887], 'x_19_1': [3619, 4580, 940, 932, 933, 934, 935, 939, 938, 937, 936], 's_17_19_1': [954], 'x_20_1': [1673, 4368, 773, 1118, 4502, 4503, 4504, 1057, 1058, 4508, 4507, 4506, 1013, 4505], 's_17_20_1': [623], 'x_28_1': [4779, 4778, 4777, 4776, 411, 4775, 984, 983, 4489, 923, 922, 921, 4022, 4023, 4024, 890], 's_17_28_1': [4111], 's_17_29_1': [1208], 'x_35_1': [3872, 4714, 4427, 4713, 669, 4667, 549, 1172, 3545, 3544, 3543, 3542, 1068, 543, 544, 545, 546, 547, 548], 's_17_35_1': [4547], 'x_39_1': [3816, 4765, 4764, 3648, 3649, 3650, 3651, 1309, 4763, 4762, 4761, 1164, 1163, 1162, 4295, 4296, 1312, 1311, 1310], 's_17_39_1': [1509], 'x_40_1': [3606, 3605, 3589, 630, 3182, 3183, 3184, 1021, 1022, 4668, 4669, 1030, 1029, 1028, 1027, 1026, 1023, 1024, 1025], 's_17_40_1': [774], 's_17_41_1': [4548], 'x_49_1': [3857, 3858, 3859, 3862, 3861, 3860], 's_17_49_1': [410], 't_17': [4403], 'x_17_2': [2301, 2285, 2300, 3897, 3896, 4389, 1777, 1776, 2074, 1775, 2086, 2087, 2088, 2089, 3910, 4388, 1820, 3909], 'x_8_1': [444, 443, 442, 4202, 441, 440, 439, 1236, 438, 437, 1235, 1234, 1233, 1232, 3351, 3350, 3349, 3348, 3347, 436], 's_8_21_1': [4176], 's_18_21_1': [1431], 's_21_23_1': [4494], 's_21_34_1': [4600], 't_21': [2347], 'x_21_2': [4017, 2361, 2362], 'x_4_1': [3741, 4609, 865, 3740, 864, 863, 848, 3739, 3738, 847, 846, 845, 844, 843, 858, 857, 3378, 3377], 's_4_23_1': [4879], 's_5_23_1': [725], 's_9_23_1': [1225], 'x_11_1': [1548, 3904, 4220, 976, 3668, 3667, 982, 977, 981, 980, 979, 3666, 3665, 978], 's_11_23_1': [4339], 's_13_23_1': [755], 's_20_23_1': [4509], 's_23_30_1': [760], 's_23_34_1': [1854], 's_23_36_1': [1884], 'x_37_1': [4523, 4582, 3708, 617, 618, 894, 893, 1403, 4461, 4522, 4460, 4459, 4458, 4457, 619, 620, 622, 4203, 621], 's_23_37_1': [4579], 's_23_39_1': [1840], 'x_42_1': [1322, 1374, 3561, 3560, 3559, 873, 874, 4656, 4655, 4654, 879, 878, 877, 876, 875], 's_23_42_1': [4444], 'x_43_1': [1435, 4342, 1432, 1434, 1433], 's_23_43_1': [1420], 't_23': [4585], 'x_23_2': [3835, 3685, 4302, 4301, 4300, 1959, 1891, 1892, 1893, 1894, 1895, 1958, 1957, 1956, 4075], 'x_1_1': [4068, 3696, 741, 740, 739, 3695, 603, 3693, 783, 3694], 's_1_25_1': [4143], 'x_2_1': [4099, 3767, 574, 3721, 3683, 3682, 3681, 423, 3677, 3678, 3679, 1010, 1009, 1008, 3680], 's_2_25_1': [708], 'x_3_1': [4112, 3992, 3426, 3425, 3424, 887, 888, 576, 575, 3843, 3844, 889], 's_3_25_1': [3873], 'x_10_1': [1102, 1101, 1100, 3528, 3529, 3530, 1097, 1098, 1099], 's_10_25_1': [753], 's_12_25_1': [1148], 's_20_25_1': [638], 'x_26_1': [533, 4277, 3647, 532, 4232, 456, 454, 453, 452, 3422, 1427, 455, 3337, 3336, 3335, 3334, 3333, 572], 's_25_26_1': [4472], 's_25_37_1': [758], 's_25_40_1': [1043], 's_25_42_1': [1373], 'x_46_1': [4026, 4060, 4059, 4058, 4057, 4056, 727, 4188, 4189, 4190, 1161, 1160], 's_25_46_1': [4323], 'x_48_1': [3259, 513, 3557, 557, 3588, 3244, 871, 872, 558, 723, 3467, 3468, 3470, 3469], 's_25_48_1': [3602], 't_25': [1809], 'x_25_2': [1778, 2614, 2521, 3238, 2611, 2612, 4554, 4555, 4557, 4558, 2513, 2512, 2511, 2510, 2509, 4556, 3748, 2613], 's_1_27_1': [3918], 's_4_27_1': [4384], 's_8_27_1': [425], 's_10_27_1': [782], 's_14_27_1': [470], 's_15_27_1': [4353], 'x_16_1': [4675, 3876, 1265, 1266, 1267, 1268, 4674, 4673, 4672, 4671, 1269], 's_16_27_1': [1539], 's_18_27_1': [531], 'x_24_1': [1352, 3410, 3411, 737, 3408, 3409], 's_24_27_1': [3393], 's_27_29_1': [4760], 'x_32_1': [1505, 997, 3952, 996, 995, 3951, 3950, 3947, 3948, 3949], 's_27_32_1': [830], 's_27_37_1': [4443], 'x_38_1': [1175, 1176, 1177, 4412, 4413, 4414, 4415, 4328, 4327, 1372, 4417, 4416], 's_27_38_1': [1672], 's_27_39_1': [1270], 's_27_43_1': [4462], 'x_45_1': [4299, 4247, 3438, 3437, 1912, 482, 483, 484, 485, 486, 4172, 4298, 4297, 4312, 4311, 4310, 4309, 4308, 4307, 562], 's_27_45_1': [1642], 't_27': [1628, 4358], 'x_27_2': [1627, 1626, 4103, 1730, 2164, 3793, 3792, 3791, 3790, 3789, 1729], 's_4_30_1': [850], 's_8_30_1': [4816], 's_19_30_1': [955], 's_30_40_1': [1045], 's_30_42_1': [1149], 't_30': [4705], 'x_30_2': [2049, 4810, 4811, 2215, 2214, 2213, 2208, 2209, 2210, 2211, 2212], 's_1_34_1': [694], 's_2_34_1': [3754], 's_3_34_1': [4097], 's_9_34_1': [1209], 's_15_34_1': [4248], 's_18_34_1': [4488], 's_28_34_1': [998], 's_29_34_1': [4640], 'x_31_1': [3709, 772, 766, 767, 768, 4054, 771, 770, 769], 's_31_34_1': [3978], 'x_33_1': [3799, 1190, 916, 917, 918, 3770, 1189, 3769, 919], 's_33_34_1': [814], 't_34': [1913], 'x_34_2': [4258, 3313, 4137, 2461, 2401, 3387, 4510, 4511, 2378, 4408, 2467, 2462, 2463, 4512, 2464, 2465, 2466], 's_1_41_1': [3963], 's_3_41_1': [3932], 's_4_41_1': [4608], 's_14_41_1': [710], 's_18_41_1': [726], 's_29_41_1': [1059], 's_32_41_1': [695], 's_41_46_1': [4218], 't_41': [1749, 4614], 'x_41_2': [3328, 3207, 2477, 2476, 2478, 2479, 2480, 2481, 4198, 4689, 4690, 4691, 2199, 2198, 2197, 4196, 4197], 's_10_47_1': [1086], 's_12_47_1': [4551], 'x_22_1': [1237, 1132, 4251, 1203, 4071, 3636, 1279, 1280, 4252, 1326, 4146, 1281], 's_22_47_1': [4237], 's_29_47_1': [4205], 's_32_47_1': [4175], 's_37_47_1': [1192], 's_43_47_1': [4402], 's_46_47_1': [4265], 't_47': [4207], 'x_47_2': [4228, 4222, 4223, 2090, 2091, 4227, 4226, 4224, 4225], 's_0_7_2': [4121], 's_0_17_2': [2315], 's_0_21_2': [4062], 's_0_23_2': [4630], 's_0_25_2': [2228], 's_0_27_2': [2314], 's_0_30_2': [4572], 's_0_34_2': [3912], 's_0_41_2': [4422], 's_0_47_2': [2316], 'x_9_2': [2333, 4467, 2437, 2436, 1501, 2435, 2434, 2433, 3597, 3596, 1502, 3533, 3534, 3535, 3536, 2133], 's_7_9_2': [4542, 4541], 'x_13_2': [3893, 3894, 1922, 4211, 4210, 3895, 1881, 1880, 1877, 3399, 1878, 1879], 's_7_13_2': [2167], 'x_14_2': [2448, 2447, 1951, 3819, 3821, 3820, 1954, 1953, 3402, 3401, 3400, 1952], 's_7_14_2': [3836], 'x_15_2': [3282, 2296, 2297, 2298, 2299, 1718, 1717, 1716, 1715, 1714, 3849, 3853, 3852, 3851, 3850], 's_7_15_2': [1733], 's_7_25_2': [1839], 'x_29_2': [1607, 3458, 1537, 4183, 4182, 1638, 1639, 1566, 3788, 1534, 1535, 1536, 4178, 2136, 4181, 4180, 4179], 's_7_29_2': [4076], 'x_36_2': [2020, 2013, 2014, 2015, 1941, 4165, 2016, 2019, 2018, 2017], 's_7_36_2': [2034], 'x_5_2': [3307, 2146, 1546, 3311, 3310, 3309, 3308], 's_5_17_2': [2071], 's_9_17_2': [3898], 'x_12_2': [4015, 1986, 4463, 4464, 4465, 2077, 2116, 2117, 2118, 2119, 2120, 2121, 2076, 4120], 's_12_17_2': [3760], 's_14_17_2': [2165], 's_15_17_2': [4359], 'x_18_2': [1550, 3983, 3984, 2431, 2432, 3523, 2388, 3985, 2406, 2389, 2390, 3986, 3987, 2405], 's_17_18_2': [2105], 'x_19_2': [3957, 2042, 2360, 3485, 3486, 1293, 3717, 2359, 2358, 3492, 3491, 3490, 3489, 3488, 3487], 's_17_19_2': [2284], 'x_20_2': [4419, 4420, 1969, 1970, 1971, 1972, 1973], 's_17_20_2': [1687], 'x_28_2': [3673, 3539, 3538, 1795, 1794, 1793, 1792, 2373, 2374, 2375, 2376, 4002, 1791, 4089, 4090, 4091, 2270], 's_17_28_2': [3956], 's_17_29_2': [2135], 'x_35_2': [3761, 3972, 2255, 2254, 3581, 1968, 3575, 2253, 3576, 3577, 3578, 3579, 3580], 's_17_35_2': [3550], 'x_39_2': [3160, 1996, 1997, 1998, 2005, 2004, 2003, 2002, 2001, 1999, 2000], 's_17_39_2': [3220], 'x_40_2': [3607, 3608, 2176, 3614, 3613, 3612, 2177, 2178, 3611, 3610, 3609], 's_17_40_2': [3326], 's_17_41_2': [2286], 'x_49_2': [1819, 1324, 3771, 3413, 2102, 3415, 3414, 1787, 3772, 3773, 1654, 3684, 1788], 's_17_49_2': [3235, 2101], 'x_8_2': [2420, 3163, 4042, 4043, 4044, 2491, 2492, 1955, 2493, 4045, 4046, 4041, 2494, 2495, 4048, 4047], 's_8_21_2': [4018], 's_18_21_2': [4092, 2346], 's_21_23_2': [4317], 's_21_34_2': [4348, 4347], 'x_4_2': [3221, 1908, 3727, 1489, 3327, 3726, 2221, 3698, 2222, 2223, 3699, 3701, 3700, 2149, 3731], 's_4_23_2': [1849], 's_5_23_2': [3325], 's_9_23_2': [4393, 4392, 2242], 'x_11_2': [1864, 3803, 3834, 3833, 1565, 1561, 1562, 1563, 1564], 's_11_23_2': [3924], 's_13_23_2': [3505], 's_20_23_2': [1974], 's_23_30_2': [4316], 's_23_34_2': [2377], 's_23_36_2': [4195], 'x_37_2': [3778, 2326, 2327, 1613, 1612, 1611, 4163, 1671, 1670, 3864, 3865, 3777, 3866, 2134, 2328, 3687, 2194, 3776], 's_23_37_2': [1909], 's_23_39_2': [1890], 'x_42_2': [2627, 3568, 1594, 1593, 3567, 3562, 3563, 3564, 3566, 3565], 's_23_42_2': [1833, 1834], 'x_43_2': [2168, 4376, 4282, 1731, 2107, 1506, 4238, 4241, 4240, 4239], 's_23_43_2': [2122], 'x_1_2': [2372, 2599, 2598, 1682, 3697, 1368, 1367, 3427, 3428, 3429, 3430, 3431, 3432, 3433, 2597, 2596], 's_1_25_2': [3418], 'x_2_2': [1608, 3178, 3177, 3176, 1609, 3728, 3593, 3744, 3743, 1713, 1712, 3279, 2011, 1711, 2012, 3280], 's_2_25_2': [3148, 2445], 'x_3_2': [3253, 3252, 1292, 2356, 3132, 3131, 3130, 3129, 3117, 3116, 3115, 3114, 1816, 3322, 3323, 3324, 1817], 's_3_25_2': [3118], 'x_10_2': [2496, 4153, 1186, 2556, 3365, 3368, 3369, 3371, 3370, 2266, 2267, 2268, 3657, 3366, 2555, 3367, 2554, 3658], 's_10_25_2': [3928], 's_12_25_2': [4449], 's_20_25_2': [4479, 1823], 'x_26_2': [4194, 1472, 3188, 3397, 3398, 1748, 1747, 1746, 1745, 1741, 1742, 1743, 1744], 's_25_26_2': [1763], 's_25_37_2': [4553], 's_25_40_2': [3629], 's_25_42_2': [3464], 'x_46_2': [4014, 2522, 2523, 2524, 2525, 4030, 4031, 4032, 1865, 4033, 3628, 2526], 's_25_46_2': [3388], 'x_48_2': [3268, 3267, 3266, 3265, 3260, 3261, 3262, 3263, 3264], 's_25_48_2': [3269], 's_1_27_2': [2584], 's_4_27_2': [3716], 's_8_27_2': [1656], 's_10_27_2': [2539], 's_14_27_2': [1939], 's_15_27_2': [2404], 'x_16_2': [2163, 3476, 2079, 3477, 3478, 2568, 2569, 2570, 1987, 1988, 2078, 2571, 2572, 2573, 4528, 4495, 4527, 4526], 's_16_27_2': [3808], 's_18_27_2': [4073], 'x_24_2': [3641, 3442, 2148, 2147, 3446, 3443, 3444, 3445], 's_24_27_2': [3671], 's_27_29_2': [4193], 'x_32_2': [2630, 3937, 3938, 3939, 3943, 3942, 2226, 2225, 3941, 3940], 's_27_32_2': [1685], 's_27_37_2': [2419], 'x_38_2': [1597, 4313, 4314, 4315, 2150, 2151, 2152, 3911, 4361, 2092], 's_27_38_2': [2239], 's_27_39_2': [3805], 's_27_43_2': [4208], 'x_45_2': [3775, 4360, 2062, 2061, 2060, 2056, 2057, 2058, 2059], 's_27_45_2': [3686], 's_4_30_2': [3672], 's_8_30_2': [2196], 's_19_30_2': [3522], 's_30_40_2': [3626], 's_30_42_2': [2193], 's_1_34_2': [3314], 's_2_34_2': [2400], 's_3_34_2': [3192], 's_9_34_2': [4333], 's_15_34_2': [3312], 's_18_34_2': [4063], 's_28_34_2': [4003], 's_29_34_2': [2392], 'x_31_2': [3343, 1907, 3342, 3341, 3340, 1906, 3214, 3215, 3216, 3217, 3218, 3213, 3219], 's_31_34_2': [3358], 'x_33_2': [3229, 3230, 3231, 3232, 3233, 2282, 2281, 3297, 3296, 3295, 3640, 3639, 1728, 1727, 1726, 3294], 's_33_34_2': [3298], 's_1_41_2': [3823], 's_3_41_2': [2415], 's_4_41_2': [2311], 's_14_41_2': [3747], 's_18_41_2': [3237], 's_29_41_2': [2421], 's_32_41_2': [2241, 4286], 's_41_46_2': [3688], 's_10_47_2': [4213], 's_12_47_2': [2046], 'x_22_2': [4390, 1927, 4269, 1926, 1925, 1923, 3756, 3757, 3758, 3759, 1924], 's_22_47_2': [4270], 's_29_47_2': [2451], 's_32_47_2': [2075], 's_37_47_2': [1686], 's_43_47_2': [1852], 's_46_47_2': [2527], 's_4_9_1': [842], 's_9_10_1': [3531], 's_9_18_1': [4177], 's_9_26_1': [1382], 's_9_42_1': [1157], 's_9_48_1': [3453], 's_3_9_1': [1217], 's_9_40_1': [4700], 's_9_15_1': [1359], 's_9_16_1': [3877], 's_9_24_1': [992], 's_9_32_1': [3997], 's_9_35_1': [3471], 's_9_36_1': [1524], 's_9_37_1': [4567], 't_9': [3472], 's_1_13_1': [3723], 's_10_13_1': [812], 's_11_13_1': [964], 's_13_15_1': [4475], 's_13_24_1': [1353], 's_13_28_1': [3874], 's_13_31_1': [3558], 's_13_37_1': [3888], 's_13_38_1': [3935], 's_13_39_1': [3921], 's_13_46_1': [1355], 't_13': [1504], 's_10_14_1': [1053], 's_14_28_1': [605], 's_14_48_1': [962], 's_5_14_1': [515], 's_8_14_1': [3541], 's_11_14_1': [1248], 's_14_22_1': [1278], 's_14_45_1': [3766], 's_14_19_1': [948], 's_14_31_1': [756], 's_14_37_1': [3797], 't_14': [3818], 's_15_26_1': [4262], 's_15_29_1': [1283], 's_15_42_1': [892], 's_3_15_1': [651], 's_12_15_1': [1253], 's_15_20_1': [713], 's_15_31_1': [4263], 's_15_36_1': [4476], 's_15_37_1': [637], 's_15_38_1': [832], 's_15_46_1': [4338], 't_15': [4478], 's_1_29_1': [1054], 's_4_29_1': [1039], 's_10_29_1': [1103], 's_18_29_1': [4115], 'x_6_1': [1342, 1341, 905, 906, 4009, 4010, 1340, 4011], 's_6_29_1': [1055], 's_11_29_1': [4385], 's_12_29_1': [3920], 's_16_29_1': [1159], 's_19_29_1': [4610], 's_29_38_1': [4085], 't_29': [1552], 's_28_36_1': [1734], 's_6_36_1': [4356], 's_36_39_1': [1389], 's_36_40_1': [1044], 's_12_36_1': [4731], 's_16_36_1': [1719], 's_35_36_1': [4729], 't_36': [2035], 's_4_9_2': [2238], 's_9_10_2': [2418], 's_9_18_2': [3703], 's_9_26_2': [3277], 's_9_42_2': [2313], 's_9_48_2': [3247], 's_3_9_2': [1516], 's_9_40_2': [1473], 's_9_15_2': [2449], 's_9_16_2': [2483], 's_9_24_2': [1517], 's_9_32_2': [2450], 's_9_35_2': [1668], 's_9_36_2': [4452, 4451, 4450], 's_9_37_2': [3537], 's_1_13_2': [1862], 's_10_13_2': [1847], 's_11_13_2': [1549], 's_13_15_2': [3804], 's_13_24_2': [1772], 's_13_28_2': [4119], 's_13_31_2': [1921], 's_13_37_2': [1699], 's_13_38_2': [4284, 1837], 's_13_39_2': [3355], 's_13_46_2': [1866], 's_10_14_2': [3643], 's_14_28_2': [3582], 's_14_48_2': [1966], 's_5_14_2': [1982], 's_8_14_2': [3403], 's_11_14_2': [1835], 's_14_22_2': [1789], 's_14_45_2': [3730], 's_14_19_2': [3732], 's_14_31_2': [2342], 's_14_37_2': [1850], 's_15_26_2': [4088], 's_15_29_2': [4118, 1596], 's_15_42_2': [3848], 's_3_15_2': [2295], 's_12_15_2': [1732], 's_15_20_2': [4434], 's_15_31_2': [3357], 's_15_36_2': [4133, 4134], 's_15_37_2': [3507], 's_15_38_2': [2195], 's_15_46_2': [3868], 's_1_29_2': [1414, 1415, 3907], 's_4_29_2': [1669], 's_10_29_2': [2557], 's_18_29_2': [4102], 'x_6_2': [3384, 3654, 4027, 4028, 4525, 4524, 1808, 1807, 1802, 4029, 1803, 1804, 1805, 1806], 's_6_29_2': [3653], 's_11_29_2': [1684], 's_12_29_2': [4166], 's_16_29_2': [2586, 4123], 's_19_29_2': [1623], 's_29_38_2': [1567, 4373], 's_28_36_2': [4164], 's_6_36_2': [4104], 's_36_39_2': [4840], 's_36_40_2': [3625], 's_12_36_2': [4436], 's_16_36_2': [4796], 's_35_36_2': [3595], 's_2_5_1': [3663], 's_4_5_1': [646], 's_5_10_1': [3380], 's_5_48_1': [811], 's_5_12_1': [3798], 's_5_39_1': [3633], 's_5_40_1': [661], 's_5_45_1': [3423], 't_5': [3306], 's_12_18_1': [3782], 's_12_39_1': [4596], 's_12_49_1': [3846], 's_12_33_1': [1114], 's_12_16_1': [4611], 's_12_38_1': [4418], 's_12_43_1': [1522], 's_12_46_1': [4206], 't_12': [1643], 's_1_18_1': [4067], 's_6_18_1': [4072], 's_11_18_1': [4174], 's_18_19_1': [4324], 's_18_20_1': [833], 's_18_28_1': [4219], 's_18_38_1': [3996], 's_18_40_1': [834], 's_18_45_1': [3977], 's_18_46_1': [1056], 's_18_48_1': [3632], 't_18': [4087, 1416], 'x_44_1': [965, 966, 742, 4281, 4280, 4278, 4279], 's_19_28_1': [4565], 's_3_19_1': [3604], 's_6_19_1': [3994], 's_8_19_1': [947], 's_19_40_1': [4790], 's_19_44_1': [3979], 's_19_32_1': [4025], 's_19_33_1': [3274], 's_19_37_1': [4581], 's_19_49_1': [950], 't_19': [3500], 's_4_20_1': [4473], 's_20_26_1': [4367], 's_20_39_1': [4370], 's_20_44_1': [4250], 's_20_45_1': [502, 503], 's_20_35_1': [518], 's_20_38_1': [593], 't_20': [1658], 's_1_28_1': [591], 's_26_28_1': [4052], 's_8_28_1': [4126], 's_28_40_1': [4264], 's_28_42_1': [4639], 's_28_43_1': [4792], 's_28_45_1': [412], 't_28': [1780], 's_26_35_1': [542], 's_8_35_1': [4562], 's_22_35_1': [3635], 's_35_40_1': [789], 's_24_35_1': [1187], 's_32_35_1': [530], 's_35_38_1': [472], 's_35_37_1': [4428], 't_35': [1173], 's_2_39_1': [949], 's_8_39_1': [1249], 's_31_39_1': [813], 's_33_39_1': [3801], 's_39_49_1': [1219], 't_39': [4750], 's_2_40_1': [3710], 's_40_42_1': [1038], 's_11_40_1': [3919], 's_24_40_1': [3394], 's_31_40_1': [3198], 's_33_40_1': [3199], 's_37_40_1': [4474], 's_40_44_1': [4070], 't_40': [3622, 3621, 3620], 's_10_49_1': [1085], 's_3_49_1': [649], 's_6_49_1': [1339], 's_16_49_1': [1115], 't_49': [1429], 's_2_5_2': [1861], 's_4_5_2': [3236, 2131], 's_5_10_2': [1531], 's_5_48_2': [1876], 's_5_12_2': [3161], 's_5_39_2': [3250, 1936], 's_5_40_2': [3191], 's_5_45_2': [2041], 's_12_18_2': [1940], 's_12_39_2': [3190], 's_12_49_2': [3461], 's_12_33_2': [3655, 3656], 's_12_16_2': [4345, 2047], 's_12_38_2': [4331], 's_12_43_2': [2106], 's_12_46_2': [1910], 's_1_18_2': [2402], 's_6_18_2': [3968, 3969], 's_11_18_2': [1655], 's_18_19_2': [3807], 's_18_20_2': [3970], 's_18_28_2': [3927], 's_18_38_2': [3971], 's_18_40_2': [3627], 's_18_45_2': [2045], 's_18_46_2': [3463], 's_18_48_2': [2446], 'x_44_2': [3881, 1371, 2026, 4148, 4147, 2027, 4149, 2028, 2029, 2030, 4150, 2031], 's_19_28_2': [3493, 3508], 's_3_19_2': [1818], 's_6_19_2': [3504], 's_8_19_2': [3718], 's_19_40_2': [1488], 's_19_44_2': [3521], 's_19_32_2': [3958], 's_19_33_2': [2043], 's_19_37_2': [3702], 's_19_49_2': [1592], 's_4_20_2': [3715], 's_20_26_2': [1867, 4344], 's_20_39_2': [4435], 's_20_44_2': [4000], 's_20_45_2': [4135], 's_20_35_2': [3925, 3926], 's_20_38_2': [1897], 's_1_28_2': [2582], 's_26_28_2': [4374], 's_8_28_2': [1790], 's_28_40_2': [2673], 's_28_42_2': [2417], 's_28_43_2': [4209], 's_28_45_2': [4105], 's_26_35_2': [1758], 's_8_35_2': [3973], 's_22_35_2': [3594], 's_35_40_2': [1398], 's_24_35_2': [1967], 's_32_35_2': [4106], 's_35_38_2': [2224], 's_35_37_2': [3762], 's_2_39_2': [3100], 's_8_39_2': [3880], 's_31_39_2': [1831], 's_33_39_2': [1984], 's_39_49_2': [3385], 's_2_40_2': [3624], 's_40_42_2': [1578], 's_11_40_2': [1863], 's_24_40_2': [3416], 's_31_40_2': [2162], 's_33_40_2': [3386], 's_37_40_2': [2283], 's_40_44_2': [3146], 's_10_49_2': [1937], 's_3_49_2': [1652], 's_6_49_2': [3474], 's_16_49_2': [2072], 's_2_8_1': [422], 's_8_48_1': [3302], 's_3_8_1': [1247], 't_8': [1250], 's_2_8_2': [1610], 's_8_48_2': [2506], 's_3_8_2': [2371], 's_1_4_1': [1129], 's_2_4_1': [1158], 's_4_6_1': [3829], 's_4_24_1': [3363], 's_4_31_1': [4039], 's_4_33_1': [3379], 's_4_42_1': [4369], 's_4_48_1': [677], 't_4': [3725], 's_2_11_1': [994], 's_11_26_1': [1428], 's_11_48_1': [961], 's_11_22_1': [1323], 's_11_32_1': [1040], 's_11_33_1': [3664], 's_11_37_1': [967], 't_11': [3623], 's_26_37_1': [636], 's_37_42_1': [4549], 's_37_48_1': [602], 's_37_45_1': [787], 's_31_37_1': [4053], 't_37': [4583], 's_1_42_1': [4069], 's_6_42_1': [3814], 's_16_42_1': [1344], 's_31_42_1': [4249], 't_42': [1458, 3532], 's_22_43_1': [1417], 's_16_43_1': [1419], 's_38_43_1': [4357], 't_43': [4267], 's_1_4_2': [2237], 's_2_4_2': [3281], 's_4_6_2': [3879, 3878, 1519, 3802, 1399, 1400], 's_4_24_2': [2192], 's_4_31_2': [2236], 's_4_33_2': [3714], 's_4_42_2': [3713], 's_4_48_2': [3251], 's_2_11_2': [3278], 's_11_26_2': [1759], 's_11_48_2': [1576], 's_11_22_2': [1579], 's_11_32_2': [3863, 1625], 's_11_33_2': [3293], 's_11_37_2': [3998], 's_26_37_2': [1701, 4283], 's_37_42_2': [3552], 's_37_48_2': [2416, 3372], 's_37_45_2': [2104], 's_31_37_2': [3417, 2387], 's_1_42_2': [3553], 's_6_42_2': [1773], 's_16_42_2': [3524], 's_31_42_2': [3549], 's_22_43_2': [1911], 's_16_43_2': [2108], 's_38_43_2': [2137], 's_1_2_1': [648], 's_1_10_1': [1084], 's_1_26_1': [589], 's_1_48_1': [3618], 't_1': [3712, 3711], 's_2_3_1': [679], 's_2_6_1': [3995], 's_2_22_1': [1294], 's_2_26_1': [3646], 's_2_44_1': [4084], 's_2_45_1': [3571], 't_2': [1624], 's_3_48_1': [1007], 's_3_24_1': [1262], 't_3': [3441], 's_10_26_1': [3527], 's_10_32_1': [4235], 's_10_48_1': [588], 't_10': [1082], 's_26_33_1': [902], 's_26_44_1': [4233], 't_26': [1412], 's_6_46_1': [1116], 's_44_46_1': [1117], 's_31_46_1': [891], 's_38_46_1': [4221], 't_46': [1836], 's_33_48_1': [3319], 't_48': [3246, 3245], 's_1_2_2': [3548], 's_1_10_2': [3913], 's_1_26_2': [1547, 3412], 's_1_48_2': [2581], 's_2_3_2': [2070], 's_2_6_2': [3729], 's_2_22_2': [1774], 's_2_26_2': [3459], 's_2_44_2': [3745], 's_2_45_2': [2055], 's_3_48_2': [1606], 's_3_24_2': [1637], 's_10_26_2': [1487], 's_10_32_2': [4049], 's_10_48_2': [1141], 's_26_33_2': [1591], 's_26_44_2': [1761], 's_6_46_2': [3999], 's_44_46_2': [1851], 's_31_46_2': [2538, 2537], 's_38_46_2': [4061, 2166], 's_33_48_2': [1621], 's_6_16_1': [4086], 's_16_22_1': [3906], 's_16_33_1': [3981], 's_16_32_1': [1205], 't_16': [4660, 4659], 's_24_45_1': [707], 't_24': [1397], 's_6_32_1': [920], 's_22_32_1': [3936], 's_32_44_1': [1011], 's_32_38_1': [1012], 't_32': [1475], 's_6_38_1': [4371], 's_22_38_1': [1191], 's_38_44_1': [743], 't_38': [1657], 's_22_45_1': [1282], 't_45': [4375], 's_6_16_2': [2048], 's_16_22_2': [4405], 's_16_33_2': [3462], 's_16_32_2': [4034], 's_24_45_2': [3506], 's_6_32_2': [1520], 's_22_32_2': [3954], 's_32_44_2': [4151], 's_32_38_2': [4001], 's_6_38_2': [4329, 1762], 's_22_38_2': [1822], 's_38_44_2': [2032], 's_22_45_2': [3774], 's_6_31_1': [815], 's_31_44_1': [757], 's_31_33_1': [3154], 't_31': [3228], 's_22_33_1': [3966], 't_33': [901], 's_6_31_2': [1801], 's_31_44_2': [3460], 's_31_33_2': [1306], 's_22_33_2': [1938], 't_22': [1264], 't_6': [1325], 't_44': [1356]}</t>
+          <t>{'x_0_1': [4621, 5282, 432, 431, 430, 394, 429, 428, 395, 396, 397, 398, 4471], 'x_7_1': [3782, 3783, 799, 3901, 3902, 3903, 3904, 4435, 4434, 4433, 4432, 1194, 1193, 4326, 1327, 1192, 1326, 1325, 1324, 3786, 3785, 994], 's_0_7_1': [410], 'x_17_1': [728, 4426, 881, 879, 878, 4427, 880, 4428, 997, 4430, 4429], 's_0_17_1': [427], 'x_21_1': [415, 411, 412, 414, 413], 's_0_21_1': [4336], 'x_23_1': [3991, 4412, 3887, 4971, 3888, 439, 4970, 4969, 4968, 4967, 445, 444, 440, 441, 442, 443], 's_0_23_1': [3976], 'x_25_1': [999, 4717, 4716, 4715, 4714, 322, 323, 324, 4711, 4712, 4713], 's_0_25_1': [4470], 'x_27_1': [622, 3946, 1088, 4370, 4369, 4204, 802, 801, 4368, 455, 456, 4366, 458, 457, 4367], 's_0_27_1': [4351], 'x_30_1': [5042, 5417, 5283, 643, 5372, 581, 582, 583], 's_0_30_1': [568], 'x_34_1': [1165, 4876, 4626, 4625, 4835, 4624, 894, 384, 385, 895, 4831, 4832, 4833, 4834], 's_0_34_1': [4726], 'x_41_1': [4156, 4157, 4608, 606, 608, 607], 's_0_41_1': [4622], 'x_47_1': [409, 3766, 3767, 3768, 859, 3849, 3848, 3847, 3846, 3845, 3844], 's_0_47_1': [3692], 't_0': [446], 'x_0_2': [5176, 1603, 2216, 4963, 5177, 5178, 5179, 4962, 1047, 5255, 5256, 5257, 4961, 4960, 4959, 4958, 1601, 1602, 5258], 'x_9_1': [619, 4081, 4610, 3917, 3916, 350, 351, 1090, 4761, 4760, 4759, 4758, 4757, 1044, 4756, 264, 263, 262, 261, 4216], 's_7_9_1': [335], 'x_13_1': [4776, 341, 475, 659, 5146, 1284, 1285, 1286, 1287, 1288, 5406, 5405, 5404, 5403, 658, 5192, 5191, 4981, 356, 657, 357], 's_7_13_1': [4551], 'x_14_1': [1107, 5133, 560, 561, 562, 563, 5135, 5134, 806, 805, 804, 803, 4502, 4503], 's_7_14_1': [559], 'x_15_1': [1040, 4982, 686, 4582, 5058, 5060, 3995, 1116, 1117, 4581, 1118, 1121, 5059, 1120, 1119], 's_7_15_1': [4490], 's_7_25_1': [4731], 'x_29_1': [4531, 399, 564, 877, 3982, 3981, 3753, 3980, 3979, 815, 816, 4562, 533, 532, 814, 4247, 4248, 4249], 's_7_29_1': [1340], 'x_36_1': [919, 3796, 4416, 3797, 3798, 3799, 3800, 1162, 1161, 1160, 1159], 's_7_36_1': [769], 't_7': [1838], 'x_7_2': [5051, 4886, 2186, 2185, 4420, 4421, 2183, 2184], 'x_5_1': [3827, 1016, 1015, 545, 1014, 1013, 1012, 3947, 3948, 3949, 1010, 1011], 's_5_17_1': [4654], 's_9_17_1': [247], 'x_12_1': [4788, 964, 3756, 3754, 655, 654, 653, 3739, 874, 3755, 3859, 3858, 575, 576, 577, 4292, 652], 's_12_17_1': [4383], 's_14_17_1': [882], 's_15_17_1': [4431], 'x_18_1': [4563, 366, 471, 4142, 984, 983, 1353, 3725, 3724, 3723, 3722, 4141, 589, 590, 4488, 698, 3726, 697, 4489, 696, 4068, 591], 's_17_18_1': [4564], 'x_19_1': [488, 853, 852, 851, 850, 4818, 4817, 5208, 4816, 5207, 5206, 372, 487, 4261, 367, 368, 369, 370, 371], 's_17_19_1': [4774], 'x_20_1': [4460, 217, 4307, 4308, 216, 1147, 4309, 1042, 4306, 4340, 4305], 's_17_20_1': [817], 'x_28_1': [3891, 4041, 1061, 1249, 5116, 5117, 5118, 5119, 5120, 5121, 1256, 1250, 1251, 1252, 1253, 1254, 1255], 's_17_28_1': [5104], 's_17_29_1': [308], 'x_35_1': [4294, 4472, 4473, 4474, 951, 4221, 4549, 954, 4220, 952, 953], 's_17_35_1': [848], 'x_39_1': [4771, 3817, 3816, 3815, 3814, 3813, 281, 280, 279, 278, 277, 276, 275, 274, 3811, 530, 529, 3812], 's_17_39_1': [4411], 'x_40_1': [4264, 1056, 4265, 1057, 4400, 5252, 5253, 5254, 897, 896, 938, 4639, 939, 940, 941, 5029], 's_17_40_1': [4444], 's_17_41_1': [4398], 'x_49_1': [516, 517, 4548, 4546, 4547, 518], 's_17_49_1': [353], 't_17': [982], 'x_17_2': [4916, 4389, 4390, 2156, 4387, 2155, 2154, 2153, 4385, 4481, 4386, 4480, 2001, 2002, 4388, 2003], 'x_8_1': [714, 5057, 623, 4772, 715, 4773, 624, 5328, 627, 626, 625], 's_8_21_1': [400], 's_18_21_1': [4232], 's_21_23_1': [4006], 's_21_34_1': [4801], 't_21': [4126], 'x_21_2': [4111, 4112, 4114, 4115, 4116, 4117, 4118, 4113, 4119, 2351, 2350, 2349, 2348, 2347, 4197, 4196, 2106, 4120], 'x_4_1': [5163, 5284, 4517, 4580, 4579, 5270, 5269, 862, 863, 867, 549, 866, 4652, 4653, 548, 865, 547, 864], 's_4_23_1': [4217], 's_5_23_1': [469], 's_9_23_1': [454], 'x_11_1': [4084, 921, 922, 923, 924, 5211, 5210, 5209, 927, 925, 926], 's_11_23_1': [4954], 's_13_23_1': [4966], 's_20_23_1': [3990], 's_23_30_1': [4953], 's_23_34_1': [460], 's_23_36_1': [3781], 'x_37_1': [4641, 4640, 969, 1100, 4879, 1101, 1102, 1103, 971, 970, 4955, 1106, 4881, 4880, 1105, 1104], 's_23_37_1': [985], 's_23_39_1': [3826], 'x_42_1': [265, 4936, 4937, 5000, 910, 911, 4939, 4999, 4938], 's_23_42_1': [401], 'x_43_1': [861, 860, 1280, 3876, 3873, 3874, 3875], 's_23_43_1': [634], 't_23': [4956], 'x_23_2': [5482, 1333, 1332, 1686, 4239, 1792, 1793, 1794, 4749, 1211, 1212, 5241, 5242, 5243, 1647, 4748, 1645, 1646], 'x_1_1': [5554, 5553, 579, 4593, 4592, 489, 490, 4787, 535, 536, 537, 5162, 522, 523, 524, 5552], 's_1_25_1': [4591], 'x_2_1': [3960, 170, 4455, 4909, 5375, 760, 5373, 763, 762, 761, 172, 5374, 173, 174, 175, 171, 4905, 4906, 4910, 4907, 4908], 's_2_25_1': [4290], 'x_3_1': [4741, 4742, 1164, 683, 4746, 4745, 684, 4743, 4744], 's_3_25_1': [1059], 'x_10_1': [4862, 1069, 504, 3710, 3709, 3708, 505, 3707, 499, 503, 502, 501, 500], 's_10_25_1': [565], 's_12_25_1': [580], 's_20_25_1': [4275], 'x_26_1': [958, 957, 956, 1073, 1074, 1075, 4727, 4728, 4729, 955, 4775], 's_25_26_1': [699], 's_25_37_1': [4730], 's_25_40_1': [4669], 's_25_42_1': [1000], 'x_46_1': [4533, 379, 380, 381, 382, 383, 4486, 674, 673, 4487, 672, 671, 670, 669, 668], 's_25_46_1': [4381], 'x_48_1': [4892, 520, 4802, 1031, 1030, 4804, 834, 4803], 's_25_48_1': [1029], 't_25': [1495], 'x_25_2': [1484, 1483, 1482, 1481, 2108, 4586, 4585, 4584, 4583, 1480, 5017, 1479], 's_1_27_1': [4607], 's_4_27_1': [593], 's_8_27_1': [4532], 's_10_27_1': [4096], 's_14_27_1': [4052], 's_15_27_1': [4505], 'x_16_1': [4845, 235, 667, 234, 233, 232, 4201, 4202, 4203, 3698, 3697, 3696, 3695, 3694, 3693, 664, 665, 666], 's_16_27_1': [4365], 's_18_27_1': [4007], 'x_24_1': [340, 339, 338, 4456, 4457, 4146, 4145, 4144, 4143, 636, 637], 's_24_27_1': [472], 's_27_29_1': [682], 'x_32_1': [3843, 709, 4171, 4172, 710, 4174, 4173, 711], 's_27_32_1': [4128], 's_27_37_1': [1089], 'x_38_1': [1178, 4399, 4083, 4039, 756, 757, 758, 1283, 4353, 4521, 4520, 4519, 4518], 's_27_38_1': [4371], 's_27_39_1': [4022], 's_27_43_1': [846], 'x_45_1': [470, 935, 4021, 320, 740, 2181, 4031, 3961, 4121, 3962, 3963, 3964, 3965, 3966, 3967, 3968, 741, 3969, 3970, 2045], 's_27_45_1': [3945], 't_27': [1133], 'x_27_2': [4445, 4446, 1504, 1505, 5168, 5167, 1506, 1507, 1752, 4527, 4526, 4525, 4524, 4523, 1403, 1511, 1510, 1509, 1508, 4522], 's_4_30_1': [702], 's_8_30_1': [628], 's_19_30_1': [687], 's_30_40_1': [733], 's_30_42_1': [551], 't_30': [5433], 'x_30_2': [5448, 5449, 5453, 5452, 5451, 5450], 's_1_34_1': [4847], 's_2_34_1': [386], 's_3_34_1': [595], 's_9_34_1': [4865], 's_15_34_1': [1269], 's_18_34_1': [4699], 's_28_34_1': [1166], 's_29_34_1': [4666], 'x_31_1': [5523, 5044, 838, 837, 835, 5010, 5011, 5012, 5013, 836], 's_31_34_1': [4848], 'x_33_1': [189, 4860, 4891, 5086, 190, 5087, 5225, 4997, 5224, 5223, 5222, 250, 492, 4995, 4996, 295, 491], 's_33_34_1': [610], 't_34': [1343], 'x_34_2': [4692, 1388, 1419, 1389, 2260, 2259, 4676, 4675, 4612, 4613, 4614, 4615, 1959], 's_1_41_1': [594], 's_3_41_1': [4578], 's_4_41_1': [729], 's_14_41_1': [4127], 's_18_41_1': [426], 's_29_41_1': [4233], 's_32_41_1': [486], 's_41_46_1': [4637], 't_41': [4158, 681], 'x_41_2': [5186, 605, 4053, 4054, 4055, 4056, 4057, 1416, 4162, 1521, 2202, 2201, 2200, 2199, 2198, 2197, 4227, 4226, 4225, 4223, 4224], 's_10_47_1': [484], 's_12_47_1': [784], 'x_22_1': [620, 203, 920, 980, 3934, 800, 187, 186, 185, 4009, 845, 188, 3933, 3932, 3931, 3930], 's_22_47_1': [979], 's_29_47_1': [739], 's_32_47_1': [3738], 's_37_47_1': [1085], 's_43_47_1': [1115], 's_46_47_1': [3631], 't_47': [3864], 'x_47_2': [2289, 1805, 4557, 2288, 2287, 1806, 2410, 2409, 2408, 4149, 4150, 4151, 2286, 2407, 2406, 4152], 's_0_7_2': [2171], 's_0_17_2': [5036], 's_0_21_2': [4947], 's_0_23_2': [5003], 's_0_25_2': [5138], 's_0_27_2': [1587], 's_0_30_2': [1048], 's_0_34_2': [2275], 's_0_41_2': [5006], 's_0_47_2': [4978], 'x_9_2': [1209, 4686, 5137, 2062, 4300, 1582, 4267, 1331, 1330, 1329, 1328, 4567, 1433, 1927, 4299, 4298, 4297, 1432], 's_7_9_2': [1897], 'x_13_2': [5226, 1317, 1975, 1976, 2187, 5111, 5110, 5107, 5108, 5109, 1796], 's_7_13_2': [4885], 'x_14_2': [2081, 2246, 5081, 5180, 2096, 5185, 1916, 5181, 5182, 1841, 1842, 5183, 5184], 's_7_14_2': [5021], 'x_15_2': [1358, 2023, 4507, 2022, 2020, 4508, 4706, 4705, 2019, 2021, 4509, 4510, 2018], 's_7_15_2': [2033], 's_7_25_2': [1958], 'x_29_2': [3908, 3907, 1464, 4466, 4465, 1460, 1461, 1462, 1463, 3909, 4462, 4464, 4463], 's_7_29_2': [2168], 'x_36_2': [1688, 4540, 1223, 4536, 4537, 4538, 4541, 4539], 's_7_36_2': [1928], 'x_5_2': [5075, 4781, 1542, 2125, 2126, 2127, 5200, 5199, 1151, 1152, 5195, 5196, 5197, 5198], 's_5_17_2': [4901], 's_9_17_2': [4436], 'x_12_2': [3862, 1369, 2034, 1370, 1866, 2242, 2124, 2243, 4012, 1491, 1492, 4342, 4343, 4344, 1867, 4646, 4645, 1989, 4570, 1868], 's_12_17_2': [4766], 's_14_17_2': [2080], 's_15_17_2': [5126], 'x_18_2': [2076, 1565, 1354, 3877, 3878, 3879, 1820, 5292, 2308, 4841, 2307, 2306, 2305, 2304, 2303, 2302, 4257, 4256, 4255, 1940, 1911, 1910, 3939], 's_17_18_2': [4015], 'x_19_2': [5076, 5479, 4506, 5480, 5481, 4132, 4131, 1243, 1242, 1241, 3921, 1235, 1236, 1237, 1238, 1239, 1240], 's_17_19_2': [1313], 'x_20_2': [4310, 4311, 4312, 4313, 4314, 4315, 2142, 2141, 2140, 2139, 2138, 2137, 4316], 's_17_20_2': [1912], 'x_28_2': [4448, 1598, 2366, 4418, 2229, 1523, 4782, 1522, 2230, 4977, 1271, 5046, 5047, 1496, 4976, 1525, 1524, 4975, 4974, 4973], 's_17_28_2': [2245], 's_17_29_2': [1448], 'x_35_2': [4930, 4281, 4282, 4283, 1282, 4284, 2006, 2005, 4735, 1944, 1943, 1942], 's_17_35_2': [4405], 'x_39_2': [3863, 1625, 1737, 1735, 1734, 1626, 1627, 1628, 3818, 1736, 1629, 4673], 's_17_39_2': [4403], 'x_40_2': [972, 973, 1363, 4840, 5465, 5466, 5467, 5468, 2092, 2093, 2094, 2095, 5005, 1991, 1992, 1993, 1994, 5470, 1723, 5469], 's_17_40_2': [4871], 's_17_41_2': [2213], 'x_49_2': [4097, 4098, 4099, 4100, 1715, 1597, 1596, 4103, 4102, 4101], 's_17_49_2': [1612], 'x_8_2': [688, 5357, 5358, 5274, 1228, 5067, 5065, 5364, 5066, 5064, 5359, 5360, 5361, 1721, 1722, 5362, 5363], 's_8_21_2': [5052], 's_18_21_2': [4377], 's_21_23_2': [1791], 's_21_34_2': [4917], 'x_4_2': [1123, 1469, 1258, 5438, 5437, 1393, 5331, 5332, 1362, 1361, 1360, 4222, 1297, 1298, 1299, 1300, 4836], 's_4_23_2': [1182], 's_5_23_2': [5240], 's_9_23_2': [4269], 'x_11_2': [1392, 5227, 1359, 4913, 4912, 1465, 1466, 1451, 2218, 5411, 4732, 5410, 5409, 5408, 5407, 1452, 1453], 's_11_23_2': [1454], 's_13_23_2': [1467], 's_20_23_2': [1747], 's_23_30_2': [1378], 's_23_34_2': [1764], 's_23_36_2': [4569], 'x_37_2': [4631, 1302, 4629, 4630, 4628, 1599, 1404, 1405, 1301, 4927, 4928, 1600], 's_23_37_2': [1749], 's_23_39_2': [4988], 'x_42_2': [1136, 1708, 1707, 1706, 5018, 1616, 4941, 4942, 4943, 4494, 4493, 1613, 1614, 1615], 's_23_42_2': [5078], 'x_43_2': [1732, 3938, 1731, 3951, 3952, 3953, 1730], 's_23_43_2': [1685], 'x_1_2': [5555, 5556, 5557, 5558, 1449, 1450, 4837, 4838, 4898, 5142, 5141, 5140, 1769, 1768, 1767, 5139, 1691, 1690], 's_1_25_2': [4627], 'x_2_2': [5376, 5391, 4672, 5392, 4779, 4778, 1573, 1572, 1539, 4807, 1570, 1571], 's_2_25_2': [5032], 'x_3_2': [4253, 1149, 4475, 1586, 5063, 1676, 1675, 1674, 1148, 4553, 4476, 4477, 4492, 1567, 1568, 4929, 1583], 's_3_25_2': [5062], 'x_10_2': [1828, 1826, 1825, 1824, 1823, 1822, 3770, 3771, 3772, 3773, 1744, 1745, 1827, 3999, 1821], 's_10_25_2': [1809], 's_12_25_2': [4511], 's_20_25_2': [2107], 'x_26_2': [5020, 1435, 5300, 5301, 2051, 2052, 5306, 1436, 1437, 5302, 5305, 5303, 5304], 's_25_26_2': [5002], 's_25_37_2': [4598, 1494], 's_25_40_2': [1499], 's_25_42_2': [4793], 'x_46_2': [5598, 5599, 5600, 4497, 4572, 2318, 2319, 2320, 2321, 2322, 5217, 5216, 5215, 5601, 5602, 5603, 5604, 1844, 5485, 1963, 1962], 's_25_46_2': [5587], 'x_48_2': [5090, 5093, 5322, 5321, 5092, 5320, 5319, 5318, 5091, 1346, 1347, 5317], 's_25_48_2': [1556], 's_1_27_2': [1753, 5424], 's_4_27_2': [4461], 's_8_27_2': [5244], 's_10_27_2': [5169], 's_14_27_2': [1422], 's_15_27_2': [1883], 'x_16_2': [1659, 1609, 4478, 1658, 1610, 1611, 1657, 4193], 's_16_27_2': [4192], 's_18_27_2': [4028], 'x_24_2': [1266, 1267, 1357, 4296, 1960, 4870, 4869, 4868, 1372, 1373, 1374, 1375, 4867], 's_24_27_2': [4327], 's_27_29_2': [4687], 'x_32_2': [4190, 2247, 1221, 5230, 2217, 5112, 5113, 4175, 2382, 2381, 2379, 2378, 2377, 5231, 4176, 4182, 2380, 4181, 4180, 1852, 4179, 4178, 4177], 's_27_32_2': [2393], 's_27_37_2': [2063], 'x_38_2': [4449, 1762, 5214, 4356, 1947, 1946, 1931, 1930, 4357, 4358, 4797, 4796, 4795, 4359, 1853, 1855, 1854], 's_27_38_2': [1177], 's_27_39_2': [1643], 's_27_43_2': [3937], 'x_45_2': [4899, 2271, 2272, 2273, 1780, 4824, 4825, 4826, 2274], 's_27_45_2': [4512], 's_4_30_2': [1513], 's_8_30_2': [898], 's_19_30_2': [1094], 's_30_40_2': [1319], 's_30_42_2': [1693], 's_1_34_2': [2261], 's_2_34_2': [1584], 's_3_34_2': [1553], 's_9_34_2': [4671], 's_15_34_2': [4660], 's_18_34_2': [4737], 's_28_34_2': [4856], 's_29_34_2': [4417], 'x_31_2': [5509, 5510, 5511, 1289, 1738, 1898, 5526, 5527, 5528, 5529, 1903, 5495, 1899, 1900, 1901, 1902], 's_31_34_2': [4750], 'x_33_2': [1137, 5151, 4554, 1718, 5378, 1719, 4808, 1630, 1633, 5152, 5153, 1632, 1631], 's_33_34_2': [1839], 's_1_41_2': [5157], 's_3_41_2': [1477], 's_4_41_2': [1296], 's_14_41_2': [5127], 's_18_41_2': [4286], 's_29_41_2': [1446], 's_32_41_2': [2121], 's_41_46_2': [4932], 's_10_47_2': [4044], 's_12_47_2': [4134], 'x_22_2': [4070, 5154, 1661, 1660, 4071, 4072, 4073, 4764, 1779, 4074, 1662, 1776, 1777, 1778], 's_22_47_2': [1761], 's_29_47_2': [4451], 's_32_47_2': [1881], 's_37_47_2': [2258, 4542], 's_43_47_2': [4014], 's_46_47_2': [4482], 's_4_9_1': [4609], 's_9_10_1': [618], 's_9_18_1': [291], 's_9_26_1': [4685], 's_9_42_1': [1091], 's_9_48_1': [819], 's_3_9_1': [249], 's_9_40_1': [4595], 's_9_15_1': [4850], 's_9_16_1': [4800], 's_9_24_1': [4606], 's_9_32_1': [4170], 's_9_35_1': [998], 's_9_36_1': [349], 's_9_37_1': [1135], 't_9': [4611], 's_1_13_1': [5161], 's_10_13_1': [4846], 's_11_13_1': [1272], 's_13_15_1': [4791], 's_13_24_1': [355], 's_13_28_1': [402], 's_13_31_1': [296], 's_13_37_1': [1225], 's_13_38_1': [1179], 's_13_39_1': [5041], 's_13_46_1': [5643], 't_13': [5106], 's_10_14_1': [3977], 's_14_28_1': [986], 's_14_48_1': [4668], 's_5_14_1': [3842], 's_8_14_1': [611], 's_11_14_1': [1077], 's_14_22_1': [3992], 's_14_45_1': [4037], 's_14_19_1': [807], 's_14_31_1': [656], 's_14_37_1': [5150], 't_14': [1092], 's_15_26_1': [4670], 's_15_29_1': [1055], 's_15_42_1': [596], 's_3_15_1': [4805], 's_12_15_1': [3890], 's_15_20_1': [1132], 's_15_31_1': [5027], 's_15_36_1': [4401], 's_15_37_1': [4535], 's_15_38_1': [1163], 's_15_46_1': [5043], 't_15': [1418], 's_1_29_1': [473], 's_4_29_1': [4697], 's_10_29_1': [4382], 's_18_29_1': [813], 'x_6_1': [727, 4325, 1027, 4129, 981, 776, 4279, 4278, 775, 774, 773, 772], 's_6_29_1': [4263], 's_11_29_1': [4219], 's_12_29_1': [3784], 's_16_29_1': [4530], 's_19_29_1': [4246], 's_29_38_1': [4234], 't_29': [1475], 's_28_36_1': [1145], 's_6_36_1': [4130], 's_36_39_1': [514], 's_36_40_1': [4160], 's_12_36_1': [934], 's_16_36_1': [1158], 's_35_36_1': [4295], 't_36': [1208], 's_4_9_2': [4851], 's_9_10_2': [1807], 's_9_18_2': [1972], 's_9_26_2': [4957], 's_9_42_2': [1345], 's_9_48_2': [5122], 's_3_9_2': [4252], 's_9_40_2': [2077], 's_9_15_2': [4360], 's_9_16_2': [4373], 's_9_24_2': [4656], 's_9_32_2': [1926], 's_9_35_2': [1536], 's_9_36_2': [1314], 's_9_37_2': [4762], 's_1_13_2': [1857], 's_10_13_2': [5079], 's_11_13_2': [2188], 's_13_15_2': [5156], 's_13_24_2': [4915], 's_13_28_2': [1961], 's_13_31_2': [4780], 's_13_37_2': [4972, 1421], 's_13_38_2': [4945], 's_13_39_2': [5124], 's_13_46_2': [5201], 's_10_14_2': [5019], 's_14_28_2': [1915], 's_14_48_2': [2082], 's_5_14_2': [5170], 's_8_14_2': [1782], 's_11_14_2': [1407, 5272], 's_14_22_2': [1797], 's_14_45_2': [1840, 4854, 4855], 's_14_19_2': [1257], 's_14_31_2': [5034], 's_14_37_2': [2111, 2110, 2109], 's_15_26_2': [5336], 's_15_29_2': [1763], 's_15_42_2': [1808], 's_3_15_2': [1538], 's_12_15_2': [1988], 's_15_20_2': [2017], 's_15_31_2': [5095], 's_15_36_2': [4555], 's_15_37_2': [1703], 's_15_38_2': [2079], 's_15_46_2': [5395], 's_1_29_2': [4642], 's_4_29_2': [1447], 's_10_29_2': [1549], 's_18_29_2': [1655], 'x_6_2': [4495, 1401, 1701, 4571, 4718, 4719, 4205, 4206, 4207, 4208, 4209, 4210, 2049, 2048, 2047, 2046, 4720, 4211], 's_6_29_2': [2123], 's_11_29_2': [4702], 's_12_29_2': [4027], 's_16_29_2': [1595], 's_19_29_2': [3922], 's_29_38_2': [4450], 's_28_36_2': [1687], 's_6_36_2': [2169], 's_36_39_2': [4643], 's_36_40_2': [4556], 's_12_36_2': [2214], 's_16_36_2': [1748], 's_35_36_2': [2004], 's_2_5_1': [4895], 's_4_5_1': [546], 's_5_10_1': [3872], 's_5_48_1': [4984], 's_5_12_1': [770], 's_5_39_1': [905], 's_5_40_1': [4355], 's_5_45_1': [785], 't_5': [1001], 's_12_18_1': [1264], 's_12_39_1': [3829], 's_12_49_1': [4322], 's_12_33_1': [640], 's_12_16_1': [1294], 's_12_38_1': [875], 's_12_43_1': [1189], 's_12_46_1': [4291], 't_12': [3741, 3740, 1399], 's_1_18_1': [4413, 578], 's_6_18_1': [712], 's_11_18_1': [4504], 's_18_19_1': [4276], 's_18_20_1': [4140], 's_18_28_1': [1234], 's_18_38_1': [908], 's_18_40_1': [4534], 's_18_45_1': [321], 's_18_46_1': [4051], 's_18_48_1': [4684], 't_18': [1310, 1309], 'x_44_1': [4638, 742, 744, 745, 743, 5420, 5418, 748, 5419, 747, 746], 's_19_28_1': [597], 's_3_19_1': [849], 's_6_19_1': [777], 's_8_19_1': [612], 's_19_40_1': [507], 's_19_44_1': [5388], 's_19_32_1': [4186], 's_19_33_1': [792], 's_19_37_1': [4864], 's_19_49_1': [4577], 't_19': [5464], 's_4_20_1': [1058], 's_20_26_1': [1072], 's_20_39_1': [4260], 's_20_44_1': [4293], 's_20_45_1': [231], 's_20_35_1': [1146], 's_20_38_1': [832], 't_20': [1087], 's_1_28_1': [567], 's_26_28_1': [5105], 's_8_28_1': [716], 's_28_40_1': [4266], 's_28_42_1': [5001], 's_28_43_1': [3936], 's_28_45_1': [1190], 't_28': [4896], 's_26_35_1': [4565], 's_8_35_1': [713], 's_22_35_1': [950], 's_35_40_1': [4459], 's_24_35_1': [1071], 's_32_35_1': [966], 's_35_38_1': [818], 's_35_37_1': [4235], 't_35': [1191, 4280], 's_2_39_1': [3900], 's_8_39_1': [5056], 's_31_39_1': [5025], 's_33_39_1': [4980], 's_39_49_1': [293], 't_39': [1519], 's_2_40_1': [5268], 's_40_42_1': [4849], 's_11_40_1': [5014], 's_24_40_1': [1176], 's_31_40_1': [5299], 's_33_40_1': [5267], 's_37_40_1': [5030], 's_40_44_1': [913], 't_40': [987, 988], 's_10_49_1': [4067], 's_3_49_1': [519], 's_6_49_1': [4277], 's_16_49_1': [4545], 't_49': [4082], 's_2_5_2': [5228], 's_4_5_2': [1197], 's_5_10_2': [1812], 's_5_48_2': [1557], 's_5_12_2': [2035], 's_5_39_2': [5213], 's_5_40_2': [5035], 's_5_45_2': [4810], 's_12_18_2': [1415], 's_12_39_2': [4058], 's_12_49_2': [4238], 's_12_33_2': [1717], 's_12_16_2': [4043], 's_12_38_2': [1869], 's_12_43_2': [1490], 's_12_46_2': [4617], 's_1_18_2': [2292], 's_6_18_2': [2182], 's_11_18_2': [5366], 's_18_19_2': [1339], 's_18_20_2': [4241], 's_18_28_2': [4752], 's_18_38_2': [2170], 's_18_40_2': [2091], 's_18_45_2': [4301], 's_18_46_2': [5082], 's_18_48_2': [2203], 'x_44_2': [5421, 1273, 5286, 5287, 5288, 5276, 5275, 1977, 5290, 5289], 's_19_28_2': [4926], 's_3_19_2': [4596], 's_6_19_2': [1386], 's_8_19_2': [1078], 's_19_40_2': [1018], 's_19_44_2': [5271], 's_19_32_2': [1371], 's_19_33_2': [5136], 's_19_37_2': [5031], 's_19_49_2': [1311], 's_4_20_2': [1312], 's_20_26_2': [5291], 's_20_39_2': [1642], 's_20_44_2': [2157], 's_20_45_2': [4811], 's_20_35_2': [1837], 's_20_38_2': [1222], 's_1_28_2': [2367], 's_26_28_2': [2036], 's_8_28_2': [2336], 's_28_40_2': [4721], 's_28_42_2': [1555], 's_28_43_2': [4419], 's_28_45_2': [4661], 's_26_35_2': [5050], 's_8_35_2': [1856], 's_22_35_2': [1281], 's_35_40_2': [4990], 's_24_35_2': [1870], 's_32_35_2': [2007], 's_35_38_2': [4600], 's_35_37_2': [1974], 's_2_39_2': [4794], 's_8_39_2': [5229], 's_31_39_2': [4674], 's_33_39_2': [4658], 's_39_49_2': [4328], 's_2_40_2': [1438], 's_40_42_2': [5484], 's_11_40_2': [5425], 's_24_40_2': [2065], 's_31_40_2': [5543], 's_33_40_2': [1634], 's_37_40_2': [2078], 's_40_44_2': [5245], 's_10_49_2': [1714], 's_3_49_2': [1566], 's_6_49_2': [1026], 's_16_49_2': [4133], 's_2_8_1': [5329], 's_8_48_1': [700], 's_3_8_1': [4667], 't_8': [718], 's_2_8_2': [5273], 's_8_48_2': [1887], 's_3_8_2': [1720], 's_1_4_1': [4651], 's_2_4_1': [928], 's_4_6_1': [1028], 's_4_24_1': [4262], 's_4_31_1': [5193], 's_4_33_1': [1032], 's_4_42_1': [909], 's_4_48_1': [609], 't_4': [1093, 5330], 's_2_11_1': [4894], 's_11_26_1': [5089], 's_11_48_1': [4789], 's_11_22_1': [936], 's_11_32_1': [876], 's_11_33_1': [1062], 's_11_37_1': [4085], 't_11': [1377], 's_26_37_1': [4700], 's_37_42_1': [1150], 's_37_48_1': [4940], 's_37_45_1': [3860], 's_31_37_1': [820], 't_37': [1316, 1315], 's_1_42_1': [4922], 's_6_42_1': [4924], 's_16_42_1': [236], 's_31_42_1': [731], 't_42': [4985], 's_22_43_1': [3889], 's_16_43_1': [680], 's_38_43_1': [755], 't_43': [1265], 's_1_4_2': [4597], 's_2_4_2': [1423], 's_4_6_2': [1341], 's_4_24_2': [4882], 's_4_31_2': [1528], 's_4_33_2': [5333], 's_4_42_2': [1390], 's_4_48_2': [1303], 's_2_11_2': [4987], 's_11_26_2': [1843], 's_11_48_2': [2128], 's_11_22_2': [1663], 's_11_32_2': [5261], 's_11_33_2': [1648], 's_11_37_2': [4747], 's_26_37_2': [4777], 's_37_42_2': [4853], 's_37_48_2': [5061], 's_37_45_2': [4823], 's_31_37_2': [1913], 's_1_42_2': [1705], 's_6_42_2': [4733], 's_16_42_2': [4703], 's_31_42_2': [4479], 's_22_43_2': [1535], 's_16_43_2': [4404], 's_38_43_2': [4374], 's_1_2_1': [764], 's_1_10_1': [4682], 's_1_26_1': [959], 's_1_48_1': [521], 't_1': [5569, 5570, 5571, 5572, 5573], 's_2_3_1': [4740], 's_2_6_1': [4878], 's_2_22_1': [4395], 's_2_26_1': [5389], 's_2_44_1': [4863], 's_2_45_1': [4020], 't_2': [5390], 's_3_48_1': [789], 's_3_24_1': [4442], 't_3': [4655], 's_10_26_1': [550], 's_10_32_1': [694], 's_10_48_1': [4877], 't_10': [1054], 's_26_33_1': [5239], 's_26_44_1': [730], 't_26': [943], 's_6_46_1': [4683], 's_44_46_1': [5148], 's_31_46_1': [5522], 's_38_46_1': [759], 't_46': [5583], 's_33_48_1': [566], 't_48': [1046], 's_1_2_2': [4822], 's_1_10_2': [4839], 's_1_26_2': [4852], 's_1_48_2': [5334], 's_2_3_2': [5123], 's_2_6_2': [1554], 's_2_22_2': [4763], 's_2_26_2': [1434], 's_2_44_2': [1498], 's_2_45_2': [1795], 's_3_48_2': [1541], 's_3_24_2': [4491], 's_10_26_2': [1813], 's_10_32_2': [1851], 's_10_48_2': [5094], 's_26_33_2': [1227], 's_26_44_2': [1858], 's_6_46_2': [4496], 's_44_46_2': [2097], 's_31_46_2': [1394], 's_38_46_2': [1948], 's_33_48_2': [1618], 's_6_16_1': [4338], 's_16_22_1': [4185], 's_16_33_1': [4725], 's_16_32_1': [336], 't_16': [1594], 's_24_45_1': [726], 't_24': [4147, 1356], 's_6_32_1': [891], 's_22_32_1': [3993], 's_32_44_1': [4218], 's_32_38_1': [4038], 't_32': [4189], 's_6_38_1': [906], 's_22_38_1': [890], 's_38_44_1': [4323], 't_38': [1268], 's_22_45_1': [695], 't_45': [4136], 's_6_16_2': [1672], 's_16_22_2': [4194], 's_16_33_2': [1733], 's_16_32_2': [1551], 's_24_45_2': [4884], 's_6_32_2': [996], 's_22_32_2': [1431], 's_32_44_2': [2112], 's_32_38_2': [4798], 's_6_38_2': [1884], 's_22_38_2': [5155], 's_38_44_2': [5260], 's_22_45_2': [1810], 's_6_31_1': [5028], 's_31_44_1': [749], 's_31_33_1': [221], 't_31': [5494], 's_22_33_1': [204], 't_33': [1122], 's_6_31_2': [1914], 's_31_44_2': [1274], 's_31_33_2': [5379], 's_22_33_2': [4734], 't_22': [4069], 't_6': [937], 't_44': [1138]}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1372,20 +1304,20 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2041</v>
+        <v>2127</v>
       </c>
       <c r="U7" t="n">
         <v>554</v>
       </c>
       <c r="V7" t="n">
-        <v>60.25790214538574</v>
+        <v>61.10061979293823</v>
       </c>
       <c r="W7" t="n">
-        <v>15.53300213813782</v>
+        <v>26.66617369651794</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[2211, 2084, 2157, 2182, 2238, 2154, 2147, 2178, 2114, 2457, 2139, 2150, 2149, 2430, 2193, 2193, 2168, 2215, 2228, 2255, 2467, 2242, 2130, 2166, 2082, 2218, 2284, 2541, 2160, 2130, 2213, 2251, 2173, 2180, 2220, 2145, 2606, 2180, 2205, 2050, 2173, 2183, 2114, 2128, 2230, 2136, 2190, 2393, 2241, 2264, 2172, 2256, 2041, 2153, 2189, 2314, 2279, 2155, 2262, 2236, 2324, 2191, 2137, 2306, 2255, 2158, 2231, 2209, 2232, 2155, 2189, 2198, 2181, 2111, 2174, 2242, 2091, 2179, 2471, 2283, 2199, 2156, 2237, 2211, 2264, 2199, 2135, 2201, 2103, 2182, 2127, 2138, 2135, 2197, 2227, 2107, 2170, 2142, 2201, 2160]</t>
+          <t>[2251, 2248, 2373, 2204, 2431, 2444, 2255, 2470, 2260, 2456, 2190, 2232, 2272, 2430, 2299, 2201, 2322, 2396, 2315, 2321, 2594, 2242, 2130, 2239, 2163, 2218, 2284, 2629, 2274, 2245, 2371, 2403, 2270, 2370, 2335, 2234, 2719, 2363, 2364, 2205, 2338, 2231, 2256, 2273, 2404, 2326, 2297, 2514, 2323, 2311, 2275, 2306, 2213, 2319, 2172, 2314, 2340, 2149, 2262, 2187, 2520, 2232, 2336, 2325, 2255, 2345, 2330, 2261, 2278, 2284, 2303, 2340, 2385, 2265, 2389, 2261, 2278, 2377, 2633, 2343, 2352, 2343, 2315, 2211, 2299, 2300, 2266, 2389, 2151, 2352, 2317, 2332, 2257, 2174, 2342, 2127, 2256, 2285, 2375, 2382]</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1394,7 +1326,7 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>94.83680613548623</v>
+        <v>104.0879052541746</v>
       </c>
       <c r="AA7" t="n">
         <v>30.49387419853968</v>
@@ -1407,12 +1339,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>[58.63185524940491, 61.010629177093506, 60.505340576171875, 61.12694597244263, 60.549447536468506, 60.630614042282104, 60.59705996513367, 60.63751769065857, 60.67866230010986, 60.33684515953064, 55.65331554412842, 61.133203744888306, 61.00379014015198, 28.344075441360474, 60.23905682563782, 61.2367148399353, 61.40525245666504, 61.51544141769409, 61.37190246582031, 60.16098117828369, 61.16871404647827, 32.940327405929565, 47.115623235702515, 60.258583068847656, 61.159279108047485, 60.77350616455078, 48.96289587020874, 60.2971556186676, 60.767481088638306, 60.441803216934204, 60.64136815071106, 61.84587359428406, 60.65013265609741, 60.882781982421875, 60.35120964050293, 61.19263243675232, 61.990723609924316, 61.23285746574402, 60.60613226890564, 61.48702907562256, 60.87671637535095, 60.781556844711304, 60.30857992172241, 61.36821722984314, 61.05833077430725, 60.90813183784485, 60.12860417366028, 60.115927934646606, 60.9541802406311, 61.17414164543152, 60.60923719406128, 60.34808826446533, 60.25790214538574, 60.51449728012085, 61.477116107940674, 48.963141441345215, 60.74291491508484, 60.58181810379028, 60.958489418029785, 60.434669971466064, 61.37597036361694, 60.73439288139343, 60.41347289085388, 57.93968224525452, 47.1543288230896, 60.33660531044006, 61.14761185646057, 60.221320152282715, 60.78817868232727, 61.24327111244202, 61.7392954826355, 61.317906618118286, 60.563457012176514, 60.38259029388428, 61.078052282333374, 53.203638553619385, 60.8715705871582, 60.85162353515625, 60.95965218544006, 60.23908352851868, 60.99018359184265, 60.170753955841064, 60.21903467178345, 45.57803964614868, 60.80939745903015, 61.3575325012207, 60.5518901348114, 60.27607727050781, 60.83624076843262, 60.93242430686951, 60.89796280860901, 61.1858115196228, 60.6425404548645, 61.34583759307861, 60.55858540534973, 61.34281897544861, 58.684165954589844, 60.86722207069397, 60.6853301525116, 60.77360653877258]</t>
+          <t>[61.175983905792236, 63.11014127731323, 61.44925260543823, 63.10864877700806, 61.672144651412964, 63.03378462791443, 60.35293221473694, 60.9420268535614, 61.63186454772949, 62.47185945510864, 60.937257528305054, 60.68870544433594, 62.55031871795654, 50.17783713340759, 61.496498107910156, 61.11867570877075, 61.6439995765686, 61.56872892379761, 63.35642671585083, 60.92007374763489, 60.89317274093628, 58.60802173614502, 60.29326128959656, 63.246020793914795, 60.342527627944946, 60.82139205932617, 62.311097383499146, 61.800039768218994, 62.91069984436035, 62.04111695289612, 62.31549096107483, 62.308085918426514, 60.92489266395569, 60.47560477256775, 61.97055101394653, 61.77958941459656, 63.370668172836304, 61.69555974006653, 61.97109055519104, 61.052945375442505, 60.39050531387329, 61.74513530731201, 60.81663942337036, 62.38801312446594, 61.72195243835449, 61.9953989982605, 63.46864032745361, 63.11111927032471, 61.41994524002075, 60.767348527908325, 60.54216289520264, 61.541370153427124, 60.64393901824951, 60.902706146240234, 60.94015073776245, 59.17622709274292, 60.70516920089722, 60.188227891922, 60.51458549499512, 60.63741421699524, 60.88071870803833, 60.265843868255615, 62.81950402259827, 60.65480995178223, 62.96518516540527, 61.578622341156006, 62.13943147659302, 61.89847993850708, 60.28772330284119, 63.15582227706909, 61.05332922935486, 62.47516059875488, 61.255125284194946, 60.73223280906677, 61.06561088562012, 61.72361636161804, 61.418923139572144, 62.168536901474, 62.629616498947144, 62.51299858093262, 61.47395420074463, 61.69633436203003, 63.520246267318726, 62.09109306335449, 60.599608182907104, 62.073060750961304, 60.45284843444824, 63.21434211730957, 61.1572322845459, 62.784000635147095, 60.80459642410278, 61.91561436653137, 61.26969766616821, 60.70929551124573, 60.978655099868774, 61.10061979293823, 60.59869837760925, 61.89202380180359, 62.72614240646362, 62.061407804489136]</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>[17.426555395126343, 13.535799026489258, 17.233625650405884, 13.904184579849243, 9.317485809326172, 9.742712497711182, 17.032928466796875, 18.2115421295166, 16.00640606880188, 14.796376466751099, 20.954423666000366, 12.143784761428833, 20.81591272354126, 13.65758204460144, 9.92744493484497, 11.881216049194336, 13.492542028427124, 20.977266550064087, 6.883206129074097, 14.476824283599854, 12.89560341835022, 15.230573177337646, 19.229503631591797, 18.422643184661865, 22.249768018722534, 28.194687366485596, 14.05727219581604, 18.031822681427002, 15.885290384292603, 20.515575170516968, 14.418812274932861, 16.11872935295105, 10.783308506011963, 18.02426242828369, 18.132250785827637, 23.632375955581665, 16.380520582199097, 13.593057632446289, 22.10731863975525, 9.851595878601074, 22.68687891960144, 11.470675945281982, 8.821113348007202, 10.819323301315308, 10.453450202941895, 13.110913276672363, 8.168606281280518, 26.879681825637817, 8.364125967025757, 6.998162031173706, 7.532604694366455, 13.96450686454773, 13.874582290649414, 16.668247938156128, 12.11826753616333, 9.07927680015564, 11.274930238723755, 10.966842651367188, 11.332352638244629, 9.007102966308594, 12.687711000442505, 8.239808320999146, 7.631992340087891, 6.472830533981323, 6.641021013259888, 15.750328302383423, 17.5864737033844, 10.516297578811646, 11.498064756393433, 8.623331546783447, 13.446885347366333, 13.301820516586304, 13.20489501953125, 13.097909688949585, 8.40304684638977, 8.325541019439697, 9.431038618087769, 19.255502462387085, 8.810794115066528, 10.736207723617554, 15.533002138137817, 6.929609298706055, 9.219491243362427, 9.591729879379272, 10.635761976242065, 9.170543670654297, 12.124365091323853, 8.147782564163208, 9.009582757949829, 15.374186277389526, 11.487154483795166, 15.186956405639648, 17.13839626312256, 9.978742599487305, 12.762104034423828, 10.601824045181274, 9.964194774627686, 8.424473285675049, 14.446237325668335, 7.16408109664917]</t>
+          <t>[23.2600679397583, 18.190744876861572, 23.59778618812561, 18.489749670028687, 12.240493535995483, 13.365114212036133, 22.791112661361694, 24.241010427474976, 21.798566341400146, 19.780591011047363, 28.036396026611328, 16.44837999343872, 28.432817220687866, 18.37020492553711, 13.361642360687256, 15.486887216567993, 18.01987934112549, 28.1471745967865, 9.386404752731323, 20.03251028060913, 18.68092966079712, 22.265406131744385, 27.93390417098999, 25.853924989700317, 31.330815315246582, 38.5337290763855, 19.30554986000061, 24.785700798034668, 21.742411613464355, 28.359499216079712, 18.872081756591797, 21.208584547042847, 14.561950922012329, 23.68104386329651, 20.24440360069275, 25.606452226638794, 19.322715044021606, 17.443809986114502, 35.50378084182739, 17.09209966659546, 41.846494913101196, 21.282277822494507, 15.928887844085693, 19.74792742729187, 19.106159448623657, 24.665127992630005, 15.212599754333496, 50.42098951339722, 15.383305788040161, 12.830458164215088, 14.197019100189209, 26.215766668319702, 25.66393280029297, 31.173205137252808, 22.051255464553833, 16.89292550086975, 20.543971061706543, 20.26940417289734, 21.51267957687378, 15.345736026763916, 22.772183179855347, 14.897658109664917, 14.059980630874634, 11.95011854171753, 12.280845880508423, 27.96854877471924, 30.999574661254883, 16.12435269355774, 18.77398443222046, 13.390849590301514, 24.071805953979492, 22.226632595062256, 23.49609613418579, 23.475816249847412, 14.806018829345703, 15.451508045196533, 16.961201667785645, 31.30016779899597, 14.15129017829895, 19.149991750717163, 26.666173696517944, 11.837245225906372, 15.855193138122559, 16.129056930541992, 18.80828094482422, 16.269113302230835, 20.76759624481201, 14.070555448532104, 15.013827085494995, 28.27163577079773, 20.730841875076294, 25.50153636932373, 27.617066860198975, 17.550193548202515, 23.609696865081787, 20.273107051849365, 18.384272813796997, 15.73917531967163, 26.70051598548889, 13.504836797714233]</t>
         </is>
       </c>
       <c r="AF7" t="n">
@@ -1439,6 +1371,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>